--- a/BackTest/2019-11-05 BackTest XLM.xlsx
+++ b/BackTest/2019-11-05 BackTest XLM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -748,11 +748,17 @@
         <v>-3939265.85702516</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>79.7</v>
+      </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -785,7 +791,11 @@
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -814,15 +824,15 @@
         <v>2010007.342974841</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
-      </c>
-      <c r="I13" t="n">
-        <v>79.5</v>
-      </c>
-      <c r="J13" t="n">
-        <v>79.5</v>
-      </c>
-      <c r="K13" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -854,12 +864,10 @@
         <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="n">
-        <v>79.5</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L14" t="n">
@@ -890,17 +898,13 @@
         <v>2009328.987374841</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
-      </c>
-      <c r="I15" t="n">
-        <v>79.5</v>
-      </c>
-      <c r="J15" t="n">
-        <v>79.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L15" t="n">
@@ -935,7 +939,11 @@
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -968,7 +976,11 @@
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1001,7 +1013,11 @@
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1034,7 +1050,11 @@
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1067,7 +1087,11 @@
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1100,7 +1124,11 @@
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1129,15 +1157,17 @@
         <v>9709328.98737484</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>80</v>
       </c>
-      <c r="J22" t="n">
-        <v>80</v>
-      </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1166,17 +1196,13 @@
         <v>9709328.98737484</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
-      </c>
-      <c r="I23" t="n">
-        <v>80</v>
-      </c>
-      <c r="J23" t="n">
-        <v>80</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L23" t="n">
@@ -1207,17 +1233,13 @@
         <v>9713828.98737484</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
-      </c>
-      <c r="I24" t="n">
-        <v>80</v>
-      </c>
-      <c r="J24" t="n">
-        <v>80</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L24" t="n">
@@ -1248,14 +1270,10 @@
         <v>7263828.98737484</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
-      </c>
-      <c r="I25" t="n">
-        <v>80.09999999999999</v>
-      </c>
-      <c r="J25" t="n">
-        <v>80</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1292,9 +1310,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>80</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1331,9 +1347,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>80</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1370,9 +1384,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>80</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1409,9 +1421,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>80</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1448,9 +1458,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>80</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1487,9 +1495,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>80</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1526,9 +1532,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>80</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1565,9 +1569,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>80</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1604,9 +1606,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>80</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1643,9 +1643,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>80</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1682,9 +1680,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>80</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1718,14 +1714,10 @@
         <v>10757317.28627484</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
-      </c>
-      <c r="I37" t="n">
-        <v>80</v>
-      </c>
-      <c r="J37" t="n">
-        <v>80</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1759,12 +1751,12 @@
         <v>13557317.28627484</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
         <v>80</v>
       </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1798,12 +1790,12 @@
         <v>13557317.28627484</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>80</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>80.09999999999999</v>
+      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1840,9 +1832,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>80</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1876,12 +1866,12 @@
         <v>13557354.69267484</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>80</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>80.09999999999999</v>
+      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1915,12 +1905,12 @@
         <v>13554354.69267484</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>80</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>80.2</v>
+      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1957,9 +1947,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>80</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1996,9 +1984,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>80</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2035,9 +2021,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>80</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2074,9 +2058,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>80</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2110,12 +2092,12 @@
         <v>13627783.47107484</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>80</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>80.40000000000001</v>
+      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2149,14 +2131,12 @@
         <v>13627783.47107484</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
         <v>80.40000000000001</v>
       </c>
-      <c r="J48" t="n">
-        <v>80</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2190,14 +2170,12 @@
         <v>13622628.92857484</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
         <v>80.40000000000001</v>
       </c>
-      <c r="J49" t="n">
-        <v>80</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2231,14 +2209,12 @@
         <v>13622878.61637484</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
         <v>80</v>
       </c>
-      <c r="J50" t="n">
-        <v>80</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2272,12 +2248,12 @@
         <v>13622878.61637484</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>80</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>80.09999999999999</v>
+      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2311,12 +2287,12 @@
         <v>13622878.61637484</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>80</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>80.09999999999999</v>
+      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2353,9 +2329,7 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>80</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2389,14 +2363,10 @@
         <v>13622748.51687484</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
-      </c>
-      <c r="I54" t="n">
-        <v>80</v>
-      </c>
-      <c r="J54" t="n">
-        <v>80</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2433,9 +2403,7 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>80</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2469,12 +2437,12 @@
         <v>13624500.07347484</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
         <v>80</v>
       </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2508,12 +2476,12 @@
         <v>13611973.71347484</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>80</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>80.3</v>
+      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2547,14 +2515,12 @@
         <v>13601973.71347484</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
         <v>79.90000000000001</v>
       </c>
-      <c r="J58" t="n">
-        <v>80</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2588,12 +2554,12 @@
         <v>13601973.71347484</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>80</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2627,14 +2593,12 @@
         <v>19203373.71347484</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
         <v>79.8</v>
       </c>
-      <c r="J60" t="n">
-        <v>80</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2668,14 +2632,10 @@
         <v>21303373.71347484</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
-      </c>
-      <c r="I61" t="n">
-        <v>79.90000000000001</v>
-      </c>
-      <c r="J61" t="n">
-        <v>80</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2712,9 +2672,7 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>80</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2751,9 +2709,7 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>80</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2787,12 +2743,12 @@
         <v>21303373.71347484</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
         <v>80</v>
       </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2829,9 +2785,7 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>80</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2868,9 +2822,7 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>80</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2904,12 +2856,12 @@
         <v>17451413.34757484</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
         <v>80</v>
       </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2943,12 +2895,12 @@
         <v>17451413.34757484</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>80</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>79.90000000000001</v>
+      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2982,14 +2934,12 @@
         <v>17451413.34757484</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
         <v>79.90000000000001</v>
       </c>
-      <c r="J69" t="n">
-        <v>80</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3023,12 +2973,12 @@
         <v>17462060.88357484</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>80</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>79.90000000000001</v>
+      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3062,12 +3012,12 @@
         <v>17466200.11357484</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
         <v>80</v>
       </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3101,12 +3051,12 @@
         <v>17476100.11357484</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>80</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I72" t="n">
+        <v>80.5</v>
+      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3140,12 +3090,12 @@
         <v>17497290.11737484</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>80</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3179,12 +3129,12 @@
         <v>17497253.98837484</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>80</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>80.7</v>
+      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3218,12 +3168,12 @@
         <v>17488813.91097484</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>80</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3257,14 +3207,12 @@
         <v>17490896.91097484</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
         <v>80.2</v>
       </c>
-      <c r="J76" t="n">
-        <v>80</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3298,14 +3246,12 @@
         <v>17501749.9735972</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
         <v>80.3</v>
       </c>
-      <c r="J77" t="n">
-        <v>80</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3339,14 +3285,12 @@
         <v>13644678.1619972</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
         <v>80.5</v>
       </c>
-      <c r="J78" t="n">
-        <v>80</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3380,12 +3324,12 @@
         <v>12237082.2176972</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>80</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>80.40000000000001</v>
+      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3419,14 +3363,12 @@
         <v>12237606.5843972</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
         <v>80.3</v>
       </c>
-      <c r="J80" t="n">
-        <v>80</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3460,12 +3402,12 @@
         <v>12237328.7192972</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>80</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>80.5</v>
+      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3499,12 +3441,12 @@
         <v>13987328.7192972</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>80</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>80.3</v>
+      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3538,14 +3480,12 @@
         <v>13987228.7192972</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
         <v>80.40000000000001</v>
       </c>
-      <c r="J83" t="n">
-        <v>80</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3579,12 +3519,12 @@
         <v>13977064.7891972</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>80</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>80.3</v>
+      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3618,14 +3558,12 @@
         <v>13977064.7891972</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I85" t="n">
         <v>80.2</v>
       </c>
-      <c r="J85" t="n">
-        <v>80</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3659,14 +3597,12 @@
         <v>13918144.2365972</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I86" t="n">
         <v>80.2</v>
       </c>
-      <c r="J86" t="n">
-        <v>80</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3700,14 +3636,12 @@
         <v>13918144.2365972</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I87" t="n">
         <v>80</v>
       </c>
-      <c r="J87" t="n">
-        <v>80</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3741,14 +3675,12 @@
         <v>13918782.8184972</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
         <v>80</v>
       </c>
-      <c r="J88" t="n">
-        <v>80</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3782,14 +3714,12 @@
         <v>13943691.5855972</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
         <v>80.2</v>
       </c>
-      <c r="J89" t="n">
-        <v>80</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3823,14 +3753,12 @@
         <v>10443691.5855972</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I90" t="n">
         <v>80.3</v>
       </c>
-      <c r="J90" t="n">
-        <v>80</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3864,12 +3792,12 @@
         <v>10443691.5855972</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>80</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>80.09999999999999</v>
+      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3903,14 +3831,12 @@
         <v>10446247.6855972</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I92" t="n">
         <v>80.09999999999999</v>
       </c>
-      <c r="J92" t="n">
-        <v>80</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3944,14 +3870,12 @@
         <v>10446247.6855972</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
         <v>80.3</v>
       </c>
-      <c r="J93" t="n">
-        <v>80</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3985,12 +3909,12 @@
         <v>10446247.6855972</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>80</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>80.3</v>
+      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4024,12 +3948,12 @@
         <v>10446247.6855972</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>80</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>80.3</v>
+      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4063,14 +3987,12 @@
         <v>10448425.2391972</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I96" t="n">
         <v>80.3</v>
       </c>
-      <c r="J96" t="n">
-        <v>80</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4104,14 +4026,12 @@
         <v>10449553.1645972</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I97" t="n">
         <v>80.40000000000001</v>
       </c>
-      <c r="J97" t="n">
-        <v>80</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4145,14 +4065,12 @@
         <v>10456997.33333169</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I98" t="n">
         <v>80.5</v>
       </c>
-      <c r="J98" t="n">
-        <v>80</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4186,14 +4104,12 @@
         <v>10457802.97143169</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I99" t="n">
         <v>80.59999999999999</v>
       </c>
-      <c r="J99" t="n">
-        <v>80</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4227,14 +4143,12 @@
         <v>9757802.971431695</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I100" t="n">
         <v>80.7</v>
       </c>
-      <c r="J100" t="n">
-        <v>80</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4268,14 +4182,12 @@
         <v>12557802.97143169</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I101" t="n">
         <v>80.59999999999999</v>
       </c>
-      <c r="J101" t="n">
-        <v>80</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4309,14 +4221,12 @@
         <v>9402308.323431695</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I102" t="n">
         <v>80.7</v>
       </c>
-      <c r="J102" t="n">
-        <v>80</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4350,14 +4260,12 @@
         <v>9402308.323431695</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I103" t="n">
         <v>80.59999999999999</v>
       </c>
-      <c r="J103" t="n">
-        <v>80</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4391,14 +4299,12 @@
         <v>9396908.323431695</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I104" t="n">
         <v>80.59999999999999</v>
       </c>
-      <c r="J104" t="n">
-        <v>80</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4432,14 +4338,12 @@
         <v>9396908.323431695</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I105" t="n">
         <v>80.5</v>
       </c>
-      <c r="J105" t="n">
-        <v>80</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4473,14 +4377,12 @@
         <v>9392632.482031696</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I106" t="n">
         <v>80.5</v>
       </c>
-      <c r="J106" t="n">
-        <v>80</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4514,14 +4416,12 @@
         <v>12542632.4820317</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I107" t="n">
         <v>80.3</v>
       </c>
-      <c r="J107" t="n">
-        <v>80</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4555,14 +4455,12 @@
         <v>12542632.4820317</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I108" t="n">
         <v>80.40000000000001</v>
       </c>
-      <c r="J108" t="n">
-        <v>80</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4596,14 +4494,12 @@
         <v>12542632.4820317</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I109" t="n">
         <v>80.40000000000001</v>
       </c>
-      <c r="J109" t="n">
-        <v>80</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4637,14 +4533,12 @@
         <v>12435195.9340317</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I110" t="n">
         <v>80.40000000000001</v>
       </c>
-      <c r="J110" t="n">
-        <v>80</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4678,14 +4572,12 @@
         <v>12435195.9340317</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I111" t="n">
         <v>80.2</v>
       </c>
-      <c r="J111" t="n">
-        <v>80</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4719,14 +4611,12 @@
         <v>12435195.9340317</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I112" t="n">
         <v>80.2</v>
       </c>
-      <c r="J112" t="n">
-        <v>80</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4760,14 +4650,12 @@
         <v>16285999.55803169</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I113" t="n">
         <v>80.2</v>
       </c>
-      <c r="J113" t="n">
-        <v>80</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4801,14 +4689,12 @@
         <v>19785999.55803169</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I114" t="n">
         <v>80.3</v>
       </c>
-      <c r="J114" t="n">
-        <v>80</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4842,14 +4728,12 @@
         <v>19770959.67433169</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I115" t="n">
         <v>80.40000000000001</v>
       </c>
-      <c r="J115" t="n">
-        <v>80</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4883,14 +4767,12 @@
         <v>19770959.67433169</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I116" t="n">
         <v>80.3</v>
       </c>
-      <c r="J116" t="n">
-        <v>80</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4924,12 +4806,12 @@
         <v>19770959.67433169</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>80</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I117" t="n">
+        <v>80.3</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4963,14 +4845,12 @@
         <v>19770959.67433169</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I118" t="n">
         <v>80.3</v>
       </c>
-      <c r="J118" t="n">
-        <v>80</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5004,14 +4884,12 @@
         <v>22920959.67433169</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I119" t="n">
         <v>80.3</v>
       </c>
-      <c r="J119" t="n">
-        <v>80</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5045,14 +4923,12 @@
         <v>22920959.67433169</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I120" t="n">
         <v>80.40000000000001</v>
       </c>
-      <c r="J120" t="n">
-        <v>80</v>
-      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5086,14 +4962,12 @@
         <v>22910740.1664317</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I121" t="n">
         <v>80.40000000000001</v>
       </c>
-      <c r="J121" t="n">
-        <v>80</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5127,14 +5001,12 @@
         <v>22910740.1664317</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I122" t="n">
         <v>80.3</v>
       </c>
-      <c r="J122" t="n">
-        <v>80</v>
-      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5168,14 +5040,12 @@
         <v>26434900.13903169</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I123" t="n">
         <v>80.3</v>
       </c>
-      <c r="J123" t="n">
-        <v>80</v>
-      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5209,14 +5079,12 @@
         <v>26434900.13903169</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I124" t="n">
         <v>80.5</v>
       </c>
-      <c r="J124" t="n">
-        <v>80</v>
-      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5250,14 +5118,12 @@
         <v>26434900.13903169</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I125" t="n">
         <v>80.5</v>
       </c>
-      <c r="J125" t="n">
-        <v>80</v>
-      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5291,12 +5157,12 @@
         <v>26434900.13903169</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>80</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I126" t="n">
+        <v>80.5</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5330,12 +5196,12 @@
         <v>26434900.13903169</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>80</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I127" t="n">
+        <v>80.5</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5369,12 +5235,12 @@
         <v>26390981.13093169</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>80</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>80.5</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5408,14 +5274,12 @@
         <v>26390981.13093169</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I129" t="n">
         <v>80.40000000000001</v>
       </c>
-      <c r="J129" t="n">
-        <v>80</v>
-      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5452,9 +5316,7 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>80</v>
-      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5488,14 +5350,12 @@
         <v>26390981.13093169</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I131" t="n">
         <v>80.40000000000001</v>
       </c>
-      <c r="J131" t="n">
-        <v>80</v>
-      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5529,12 +5389,12 @@
         <v>26390981.13093169</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>80</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>80.40000000000001</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5568,14 +5428,12 @@
         <v>27790991.13093169</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I133" t="n">
         <v>80.40000000000001</v>
       </c>
-      <c r="J133" t="n">
-        <v>80</v>
-      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5609,14 +5467,12 @@
         <v>27784680.56863169</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I134" t="n">
         <v>80.5</v>
       </c>
-      <c r="J134" t="n">
-        <v>80</v>
-      </c>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5650,14 +5506,12 @@
         <v>31284680.56863169</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I135" t="n">
         <v>80.3</v>
       </c>
-      <c r="J135" t="n">
-        <v>80</v>
-      </c>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5691,14 +5545,10 @@
         <v>31284680.56863169</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
-      </c>
-      <c r="I136" t="n">
-        <v>80.40000000000001</v>
-      </c>
-      <c r="J136" t="n">
-        <v>80</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5732,12 +5582,12 @@
         <v>31284680.56863169</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>80</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I137" t="n">
+        <v>80.40000000000001</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5771,12 +5621,12 @@
         <v>31284680.56863169</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>80</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I138" t="n">
+        <v>80.40000000000001</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5813,9 +5663,7 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>80</v>
-      </c>
+      <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5852,9 +5700,7 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>80</v>
-      </c>
+      <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5888,12 +5734,12 @@
         <v>31225791.81336004</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>80</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I141" t="n">
+        <v>80.3</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5927,12 +5773,12 @@
         <v>31212820.58876004</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>80</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I142" t="n">
+        <v>80.40000000000001</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5966,14 +5812,12 @@
         <v>31212820.58876004</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I143" t="n">
         <v>80.3</v>
       </c>
-      <c r="J143" t="n">
-        <v>80</v>
-      </c>
+      <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6007,12 +5851,12 @@
         <v>31212820.58876004</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>80</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I144" t="n">
+        <v>80.3</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6046,12 +5890,12 @@
         <v>31212820.58876004</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>80</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I145" t="n">
+        <v>80.3</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6085,12 +5929,12 @@
         <v>31275879.59533169</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>80</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I146" t="n">
+        <v>80.3</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6124,12 +5968,12 @@
         <v>31275879.59533169</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>80</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I147" t="n">
+        <v>80.7</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6163,12 +6007,12 @@
         <v>31233449.60673169</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>80</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I148" t="n">
+        <v>80.7</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6202,12 +6046,12 @@
         <v>31233449.60673169</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>80</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I149" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6241,12 +6085,12 @@
         <v>28433449.60673169</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>80</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I150" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6280,12 +6124,12 @@
         <v>28433449.60673169</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>80</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I151" t="n">
+        <v>80.40000000000001</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6319,12 +6163,12 @@
         <v>28379501.90093169</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>80</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I152" t="n">
+        <v>80.40000000000001</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6358,12 +6202,12 @@
         <v>28379501.90093169</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>80</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I153" t="n">
+        <v>80.3</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6397,12 +6241,12 @@
         <v>31879501.90093169</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>80</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I154" t="n">
+        <v>80.3</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6436,12 +6280,12 @@
         <v>31882611.27753169</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>80</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I155" t="n">
+        <v>80.40000000000001</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6475,12 +6319,12 @@
         <v>31886130.24155154</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>80</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I156" t="n">
+        <v>80.5</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6514,12 +6358,12 @@
         <v>28275557.12885154</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>80</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I157" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6553,12 +6397,12 @@
         <v>28275557.12885154</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>80</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I158" t="n">
+        <v>80.2</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6592,12 +6436,12 @@
         <v>28275557.12885154</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>80</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I159" t="n">
+        <v>80.2</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6631,12 +6475,12 @@
         <v>31448112.44899496</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>80</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I160" t="n">
+        <v>80.2</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6670,12 +6514,12 @@
         <v>31448359.34289496</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>80</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I161" t="n">
+        <v>80.40000000000001</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6709,12 +6553,12 @@
         <v>31460190.53389496</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>80</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I162" t="n">
+        <v>80.5</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6748,12 +6592,12 @@
         <v>25510190.53389496</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>80</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I163" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6787,12 +6631,12 @@
         <v>25503991.10469496</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>80</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I164" t="n">
+        <v>80.5</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6826,12 +6670,12 @@
         <v>25548215.37259496</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>80</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I165" t="n">
+        <v>80.3</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6865,12 +6709,12 @@
         <v>25548215.37259496</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>80</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I166" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6904,12 +6748,12 @@
         <v>22398215.37259496</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>80</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I167" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6943,12 +6787,12 @@
         <v>22432924.83909496</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>80</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I168" t="n">
+        <v>80.5</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6982,12 +6826,12 @@
         <v>22432924.83909496</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>80</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I169" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7021,12 +6865,12 @@
         <v>22432924.83909496</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>80</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I170" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7060,12 +6904,12 @@
         <v>22432924.83909496</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>80</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I171" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7099,12 +6943,12 @@
         <v>19632924.83909496</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>80</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I172" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7138,12 +6982,12 @@
         <v>19632924.83909496</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>80</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I173" t="n">
+        <v>80.5</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7177,12 +7021,12 @@
         <v>16132924.83909496</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>80</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I174" t="n">
+        <v>80.5</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7216,12 +7060,12 @@
         <v>12966999.93939496</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>80</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I175" t="n">
+        <v>80.40000000000001</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7255,12 +7099,12 @@
         <v>12966999.93939496</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>80</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I176" t="n">
+        <v>80.2</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7294,12 +7138,12 @@
         <v>12966999.93939496</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>80</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I177" t="n">
+        <v>80.2</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7333,12 +7177,12 @@
         <v>12572886.23219496</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>80</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I178" t="n">
+        <v>80.2</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7372,12 +7216,12 @@
         <v>16772886.23219496</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
+        <v>1</v>
+      </c>
+      <c r="I179" t="n">
         <v>80</v>
       </c>
+      <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7411,12 +7255,12 @@
         <v>16772886.23219496</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>80</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I180" t="n">
+        <v>80.2</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7450,12 +7294,12 @@
         <v>16747468.59189496</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>80</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I181" t="n">
+        <v>80.2</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7489,12 +7333,12 @@
         <v>19897468.59189496</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>80</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I182" t="n">
+        <v>80.09999999999999</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7528,12 +7372,12 @@
         <v>19897468.59189496</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>80</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I183" t="n">
+        <v>80.2</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7567,12 +7411,12 @@
         <v>19897468.59189496</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>80</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I184" t="n">
+        <v>80.2</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7606,12 +7450,12 @@
         <v>19897468.59189496</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>80</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I185" t="n">
+        <v>80.2</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7645,12 +7489,12 @@
         <v>19897468.59189496</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>80</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I186" t="n">
+        <v>80.2</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7684,12 +7528,12 @@
         <v>19817451.42309496</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>80</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I187" t="n">
+        <v>80.2</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7723,12 +7567,12 @@
         <v>26117451.42309496</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>80</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I188" t="n">
+        <v>80.09999999999999</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7765,9 +7609,7 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>80</v>
-      </c>
+      <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7804,9 +7646,7 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>80</v>
-      </c>
+      <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7843,9 +7683,7 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>80</v>
-      </c>
+      <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7882,9 +7720,7 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>80</v>
-      </c>
+      <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7921,9 +7757,7 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>80</v>
-      </c>
+      <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7957,12 +7791,12 @@
         <v>33840345.94819497</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>80</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I194" t="n">
+        <v>80.09999999999999</v>
+      </c>
+      <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7996,12 +7830,12 @@
         <v>33840845.94819497</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>80</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I195" t="n">
+        <v>80.2</v>
+      </c>
+      <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8035,12 +7869,12 @@
         <v>33840845.94819497</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>80</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I196" t="n">
+        <v>80.3</v>
+      </c>
+      <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8074,12 +7908,12 @@
         <v>28340845.94819497</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>80</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I197" t="n">
+        <v>80.3</v>
+      </c>
+      <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8116,9 +7950,7 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>80</v>
-      </c>
+      <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8152,12 +7984,12 @@
         <v>28343456.88599497</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>80</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I199" t="n">
+        <v>80.3</v>
+      </c>
+      <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8191,12 +8023,12 @@
         <v>27843026.82849497</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>80</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I200" t="n">
+        <v>80.3</v>
+      </c>
+      <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8230,12 +8062,12 @@
         <v>27843026.82849497</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>80</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I201" t="n">
+        <v>80.2</v>
+      </c>
+      <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8269,12 +8101,12 @@
         <v>27857337.02519497</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>80</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I202" t="n">
+        <v>80.2</v>
+      </c>
+      <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8308,12 +8140,12 @@
         <v>27857337.02519497</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>80</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I203" t="n">
+        <v>80.3</v>
+      </c>
+      <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8347,12 +8179,12 @@
         <v>27857337.02519497</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>80</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I204" t="n">
+        <v>80.3</v>
+      </c>
+      <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8389,9 +8221,7 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>80</v>
-      </c>
+      <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8425,12 +8255,12 @@
         <v>33052068.82863409</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>80</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I206" t="n">
+        <v>80.5</v>
+      </c>
+      <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8464,12 +8294,12 @@
         <v>33052068.82863409</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>80</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I207" t="n">
+        <v>80.5</v>
+      </c>
+      <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8503,12 +8333,12 @@
         <v>27411669.1359341</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>80</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I208" t="n">
+        <v>80.5</v>
+      </c>
+      <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8545,9 +8375,7 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>80</v>
-      </c>
+      <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8584,9 +8412,7 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>80</v>
-      </c>
+      <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8623,9 +8449,7 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>80</v>
-      </c>
+      <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8659,12 +8483,12 @@
         <v>32118502.95727405</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>80</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I212" t="n">
+        <v>80.40000000000001</v>
+      </c>
+      <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8698,12 +8522,12 @@
         <v>32118502.95727405</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>80</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I213" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8737,12 +8561,12 @@
         <v>32117794.67437404</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>80</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I214" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8776,12 +8600,12 @@
         <v>34467794.67437404</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>80</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I215" t="n">
+        <v>80.40000000000001</v>
+      </c>
+      <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8815,12 +8639,12 @@
         <v>34467794.67437404</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>80</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I216" t="n">
+        <v>80.5</v>
+      </c>
+      <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8854,12 +8678,12 @@
         <v>34467794.67437404</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>80</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I217" t="n">
+        <v>80.5</v>
+      </c>
+      <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8893,12 +8717,12 @@
         <v>34724546.57036612</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>80</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I218" t="n">
+        <v>80.5</v>
+      </c>
+      <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8932,12 +8756,12 @@
         <v>34708509.17116612</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>80</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I219" t="n">
+        <v>80.90000000000001</v>
+      </c>
+      <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8971,12 +8795,12 @@
         <v>34708509.17116612</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>80</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I220" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9010,12 +8834,12 @@
         <v>34708509.17116612</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>80</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I221" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9049,12 +8873,12 @@
         <v>34708509.17116612</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>80</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I222" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9088,12 +8912,12 @@
         <v>34708509.17116612</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>80</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I223" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9127,12 +8951,12 @@
         <v>39214081.92806612</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>80</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I224" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9166,12 +8990,12 @@
         <v>39214081.92806612</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>80</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I225" t="n">
+        <v>80.7</v>
+      </c>
+      <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9205,12 +9029,12 @@
         <v>39245688.98425126</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>80</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I226" t="n">
+        <v>80.7</v>
+      </c>
+      <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9244,12 +9068,12 @@
         <v>39210724.49095126</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>80</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I227" t="n">
+        <v>80.8</v>
+      </c>
+      <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9283,12 +9107,12 @@
         <v>39211536.22735126</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>80</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I228" t="n">
+        <v>80.40000000000001</v>
+      </c>
+      <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9322,12 +9146,12 @@
         <v>33361536.22735126</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>80</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I229" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9364,9 +9188,7 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>80</v>
-      </c>
+      <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9403,9 +9225,7 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>80</v>
-      </c>
+      <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9442,9 +9262,7 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>80</v>
-      </c>
+      <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9478,12 +9296,12 @@
         <v>37407421.37245127</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>80</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I233" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9520,9 +9338,7 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>80</v>
-      </c>
+      <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9556,12 +9372,12 @@
         <v>37407421.37245127</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>80</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I235" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9598,9 +9414,7 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>80</v>
-      </c>
+      <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9634,12 +9448,12 @@
         <v>37407421.37245127</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>80</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I237" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9673,12 +9487,12 @@
         <v>37407421.37245127</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>80</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I238" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9712,12 +9526,12 @@
         <v>37407421.37245127</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>80</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I239" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9751,12 +9565,12 @@
         <v>37408026.49445127</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>80</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I240" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9793,9 +9607,7 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>80</v>
-      </c>
+      <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9832,9 +9644,7 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>80</v>
-      </c>
+      <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9871,9 +9681,7 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>80</v>
-      </c>
+      <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9910,9 +9718,7 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>80</v>
-      </c>
+      <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9949,9 +9755,7 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>80</v>
-      </c>
+      <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9988,9 +9792,7 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>80</v>
-      </c>
+      <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10027,9 +9829,7 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>80</v>
-      </c>
+      <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10066,9 +9866,7 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>80</v>
-      </c>
+      <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10105,9 +9903,7 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>80</v>
-      </c>
+      <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10144,9 +9940,7 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>80</v>
-      </c>
+      <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10183,9 +9977,7 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>80</v>
-      </c>
+      <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10222,9 +10014,7 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>80</v>
-      </c>
+      <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10261,9 +10051,7 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>80</v>
-      </c>
+      <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10300,9 +10088,7 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>80</v>
-      </c>
+      <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10336,12 +10122,12 @@
         <v>37369990.61175127</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
-      </c>
-      <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>80</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I255" t="n">
+        <v>80.3</v>
+      </c>
+      <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10378,9 +10164,7 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>80</v>
-      </c>
+      <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10417,9 +10201,7 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>80</v>
-      </c>
+      <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10456,9 +10238,7 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>80</v>
-      </c>
+      <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10492,12 +10272,12 @@
         <v>37369426.39105126</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
-      </c>
-      <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>80</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I259" t="n">
+        <v>80.09999999999999</v>
+      </c>
+      <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10531,12 +10311,12 @@
         <v>37366632.97375126</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
-      </c>
-      <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>80</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I260" t="n">
+        <v>80.40000000000001</v>
+      </c>
+      <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10570,12 +10350,12 @@
         <v>37366632.97375126</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
-      </c>
-      <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>80</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I261" t="n">
+        <v>80.09999999999999</v>
+      </c>
+      <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10609,12 +10389,12 @@
         <v>37366632.97375126</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
-      </c>
-      <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>80</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I262" t="n">
+        <v>80.09999999999999</v>
+      </c>
+      <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10648,12 +10428,12 @@
         <v>37371291.60875126</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
-      </c>
-      <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>80</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I263" t="n">
+        <v>80.09999999999999</v>
+      </c>
+      <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10687,12 +10467,12 @@
         <v>37405088.63155126</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
-      </c>
-      <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>80</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I264" t="n">
+        <v>80.3</v>
+      </c>
+      <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10726,12 +10506,12 @@
         <v>37405088.63155126</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
-      </c>
-      <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>80</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I265" t="n">
+        <v>80.40000000000001</v>
+      </c>
+      <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10765,12 +10545,12 @@
         <v>37447900.59765126</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
-      </c>
-      <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>80</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I266" t="n">
+        <v>80.40000000000001</v>
+      </c>
+      <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10804,12 +10584,12 @@
         <v>37420309.24815126</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
-      </c>
-      <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>80</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I267" t="n">
+        <v>80.5</v>
+      </c>
+      <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10843,12 +10623,12 @@
         <v>37430629.79465126</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
-      </c>
-      <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>80</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I268" t="n">
+        <v>80.40000000000001</v>
+      </c>
+      <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10882,12 +10662,12 @@
         <v>37430629.79465126</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
-      </c>
-      <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>80</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I269" t="n">
+        <v>80.5</v>
+      </c>
+      <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10921,12 +10701,12 @@
         <v>37430629.79465126</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
-      </c>
-      <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>80</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I270" t="n">
+        <v>80.5</v>
+      </c>
+      <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10960,12 +10740,12 @@
         <v>37430629.79465126</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
-      </c>
-      <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>80</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I271" t="n">
+        <v>80.5</v>
+      </c>
+      <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10999,12 +10779,12 @@
         <v>37430629.79465126</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
-      </c>
-      <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>80</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I272" t="n">
+        <v>80.5</v>
+      </c>
+      <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11038,12 +10818,12 @@
         <v>37430629.79465126</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
-      </c>
-      <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>80</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I273" t="n">
+        <v>80.5</v>
+      </c>
+      <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11077,12 +10857,12 @@
         <v>37527151.17855126</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
-      </c>
-      <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>80</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I274" t="n">
+        <v>80.5</v>
+      </c>
+      <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11116,12 +10896,12 @@
         <v>37538471.99465126</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
-      </c>
-      <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>80</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I275" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11155,12 +10935,12 @@
         <v>37538471.99465126</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
-      </c>
-      <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>80</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I276" t="n">
+        <v>80.7</v>
+      </c>
+      <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11194,12 +10974,12 @@
         <v>37571972.45005126</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
-      </c>
-      <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>80</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I277" t="n">
+        <v>80.7</v>
+      </c>
+      <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11233,12 +11013,12 @@
         <v>37571972.45005126</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
-      </c>
-      <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>80</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I278" t="n">
+        <v>80.8</v>
+      </c>
+      <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11272,12 +11052,12 @@
         <v>37571972.45005126</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
-      </c>
-      <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>80</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I279" t="n">
+        <v>80.8</v>
+      </c>
+      <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11311,12 +11091,12 @@
         <v>37571955.75865126</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
-      </c>
-      <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>80</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I280" t="n">
+        <v>80.8</v>
+      </c>
+      <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11350,12 +11130,12 @@
         <v>37520904.96675126</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
-      </c>
-      <c r="I281" t="inlineStr"/>
-      <c r="J281" t="n">
-        <v>80</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I281" t="n">
+        <v>80.7</v>
+      </c>
+      <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11389,12 +11169,12 @@
         <v>37523647.96675126</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
-      </c>
-      <c r="I282" t="inlineStr"/>
-      <c r="J282" t="n">
-        <v>80</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I282" t="n">
+        <v>80.3</v>
+      </c>
+      <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11428,12 +11208,12 @@
         <v>37541855.81765126</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
-      </c>
-      <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
-        <v>80</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I283" t="n">
+        <v>80.5</v>
+      </c>
+      <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11467,12 +11247,12 @@
         <v>37541855.81765126</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
-      </c>
-      <c r="I284" t="inlineStr"/>
-      <c r="J284" t="n">
-        <v>80</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I284" t="n">
+        <v>80.90000000000001</v>
+      </c>
+      <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11506,12 +11286,12 @@
         <v>37541855.81765126</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
-      </c>
-      <c r="I285" t="inlineStr"/>
-      <c r="J285" t="n">
-        <v>80</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I285" t="n">
+        <v>80.90000000000001</v>
+      </c>
+      <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11545,12 +11325,12 @@
         <v>37543355.81765126</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
-      </c>
-      <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>80</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I286" t="n">
+        <v>80.90000000000001</v>
+      </c>
+      <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11584,12 +11364,12 @@
         <v>37543355.81765126</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
-      </c>
-      <c r="I287" t="inlineStr"/>
-      <c r="J287" t="n">
-        <v>80</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I287" t="n">
+        <v>81</v>
+      </c>
+      <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11623,12 +11403,12 @@
         <v>37543355.81765126</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
-      </c>
-      <c r="I288" t="inlineStr"/>
-      <c r="J288" t="n">
-        <v>80</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I288" t="n">
+        <v>81</v>
+      </c>
+      <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11662,12 +11442,12 @@
         <v>37543294.83575126</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
-      </c>
-      <c r="I289" t="inlineStr"/>
-      <c r="J289" t="n">
-        <v>80</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I289" t="n">
+        <v>81</v>
+      </c>
+      <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11701,12 +11481,12 @@
         <v>37545114.13575125</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
-      </c>
-      <c r="I290" t="inlineStr"/>
-      <c r="J290" t="n">
-        <v>80</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I290" t="n">
+        <v>80.90000000000001</v>
+      </c>
+      <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11740,12 +11520,12 @@
         <v>37545114.13575125</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
-      </c>
-      <c r="I291" t="inlineStr"/>
-      <c r="J291" t="n">
-        <v>80</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I291" t="n">
+        <v>81</v>
+      </c>
+      <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11779,12 +11559,12 @@
         <v>37532459.10415126</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
-      </c>
-      <c r="I292" t="inlineStr"/>
-      <c r="J292" t="n">
-        <v>80</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I292" t="n">
+        <v>81</v>
+      </c>
+      <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11818,12 +11598,12 @@
         <v>37532459.10415126</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
-      </c>
-      <c r="I293" t="inlineStr"/>
-      <c r="J293" t="n">
-        <v>80</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I293" t="n">
+        <v>80.90000000000001</v>
+      </c>
+      <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11857,12 +11637,12 @@
         <v>37532459.10415126</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
-      </c>
-      <c r="I294" t="inlineStr"/>
-      <c r="J294" t="n">
-        <v>80</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I294" t="n">
+        <v>80.90000000000001</v>
+      </c>
+      <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11896,12 +11676,12 @@
         <v>37532459.10415126</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
-      </c>
-      <c r="I295" t="inlineStr"/>
-      <c r="J295" t="n">
-        <v>80</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I295" t="n">
+        <v>80.90000000000001</v>
+      </c>
+      <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11935,12 +11715,12 @@
         <v>37530248.15855125</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
-      </c>
-      <c r="I296" t="inlineStr"/>
-      <c r="J296" t="n">
-        <v>80</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I296" t="n">
+        <v>80.90000000000001</v>
+      </c>
+      <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11974,12 +11754,12 @@
         <v>37530248.15865126</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
-      </c>
-      <c r="I297" t="inlineStr"/>
-      <c r="J297" t="n">
-        <v>80</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I297" t="n">
+        <v>80.8</v>
+      </c>
+      <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12013,12 +11793,12 @@
         <v>38393348.77375126</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
-      </c>
-      <c r="I298" t="inlineStr"/>
-      <c r="J298" t="n">
-        <v>80</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I298" t="n">
+        <v>80.90000000000001</v>
+      </c>
+      <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12052,12 +11832,12 @@
         <v>38393348.77375126</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
-      </c>
-      <c r="I299" t="inlineStr"/>
-      <c r="J299" t="n">
-        <v>80</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I299" t="n">
+        <v>81.09999999999999</v>
+      </c>
+      <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12091,12 +11871,12 @@
         <v>31892987.15195126</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
-      </c>
-      <c r="I300" t="inlineStr"/>
-      <c r="J300" t="n">
-        <v>80</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I300" t="n">
+        <v>81.09999999999999</v>
+      </c>
+      <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12130,12 +11910,12 @@
         <v>31892987.15195126</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
-      </c>
-      <c r="I301" t="inlineStr"/>
-      <c r="J301" t="n">
-        <v>80</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I301" t="n">
+        <v>81</v>
+      </c>
+      <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12172,9 +11952,7 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="n">
-        <v>80</v>
-      </c>
+      <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12211,9 +11989,7 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="n">
-        <v>80</v>
-      </c>
+      <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12250,9 +12026,7 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="n">
-        <v>80</v>
-      </c>
+      <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12289,9 +12063,7 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="n">
-        <v>80</v>
-      </c>
+      <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12325,12 +12097,12 @@
         <v>31894402.21525126</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
-      </c>
-      <c r="I306" t="inlineStr"/>
-      <c r="J306" t="n">
-        <v>80</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I306" t="n">
+        <v>81</v>
+      </c>
+      <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12364,12 +12136,12 @@
         <v>31894384.66875126</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
-      </c>
-      <c r="I307" t="inlineStr"/>
-      <c r="J307" t="n">
-        <v>80</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I307" t="n">
+        <v>81.09999999999999</v>
+      </c>
+      <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12403,12 +12175,12 @@
         <v>31895974.84515126</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
-      </c>
-      <c r="I308" t="inlineStr"/>
-      <c r="J308" t="n">
-        <v>80</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I308" t="n">
+        <v>80.90000000000001</v>
+      </c>
+      <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12442,12 +12214,12 @@
         <v>31895691.72555126</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
-      </c>
-      <c r="I309" t="inlineStr"/>
-      <c r="J309" t="n">
-        <v>80</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I309" t="n">
+        <v>81</v>
+      </c>
+      <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12481,12 +12253,12 @@
         <v>31895691.72555126</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
-      </c>
-      <c r="I310" t="inlineStr"/>
-      <c r="J310" t="n">
-        <v>80</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I310" t="n">
+        <v>80.90000000000001</v>
+      </c>
+      <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12520,12 +12292,12 @@
         <v>31895691.72555126</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
-      </c>
-      <c r="I311" t="inlineStr"/>
-      <c r="J311" t="n">
-        <v>80</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I311" t="n">
+        <v>80.90000000000001</v>
+      </c>
+      <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12559,12 +12331,12 @@
         <v>31895691.72555126</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
-      </c>
-      <c r="I312" t="inlineStr"/>
-      <c r="J312" t="n">
-        <v>80</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I312" t="n">
+        <v>80.90000000000001</v>
+      </c>
+      <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12598,12 +12370,12 @@
         <v>31894277.47035126</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
-      </c>
-      <c r="I313" t="inlineStr"/>
-      <c r="J313" t="n">
-        <v>80</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I313" t="n">
+        <v>80.90000000000001</v>
+      </c>
+      <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12637,12 +12409,12 @@
         <v>31913281.75715126</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
-      </c>
-      <c r="I314" t="inlineStr"/>
-      <c r="J314" t="n">
-        <v>80</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I314" t="n">
+        <v>80.8</v>
+      </c>
+      <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12676,12 +12448,12 @@
         <v>31911106.57585126</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
-      </c>
-      <c r="I315" t="inlineStr"/>
-      <c r="J315" t="n">
-        <v>80</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I315" t="n">
+        <v>80.90000000000001</v>
+      </c>
+      <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12715,12 +12487,12 @@
         <v>31916534.96995126</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
-      </c>
-      <c r="I316" t="inlineStr"/>
-      <c r="J316" t="n">
-        <v>80</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I316" t="n">
+        <v>80.8</v>
+      </c>
+      <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12757,9 +12529,7 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="n">
-        <v>80</v>
-      </c>
+      <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12793,12 +12563,12 @@
         <v>31916550.41995126</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
-      </c>
-      <c r="I318" t="inlineStr"/>
-      <c r="J318" t="n">
-        <v>80</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I318" t="n">
+        <v>80.90000000000001</v>
+      </c>
+      <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12835,9 +12605,7 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="n">
-        <v>80</v>
-      </c>
+      <c r="J319" t="inlineStr"/>
       <c r="K319" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12874,9 +12642,7 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="n">
-        <v>80</v>
-      </c>
+      <c r="J320" t="inlineStr"/>
       <c r="K320" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12913,9 +12679,7 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="n">
-        <v>80</v>
-      </c>
+      <c r="J321" t="inlineStr"/>
       <c r="K321" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12952,9 +12716,7 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="n">
-        <v>80</v>
-      </c>
+      <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12991,9 +12753,7 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="n">
-        <v>80</v>
-      </c>
+      <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13027,12 +12787,12 @@
         <v>31898820.10915126</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
-      </c>
-      <c r="I324" t="inlineStr"/>
-      <c r="J324" t="n">
-        <v>80</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I324" t="n">
+        <v>80.90000000000001</v>
+      </c>
+      <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13069,9 +12829,7 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="n">
-        <v>80</v>
-      </c>
+      <c r="J325" t="inlineStr"/>
       <c r="K325" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13105,12 +12863,12 @@
         <v>31902723.18655125</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
-      </c>
-      <c r="I326" t="inlineStr"/>
-      <c r="J326" t="n">
-        <v>80</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I326" t="n">
+        <v>80.90000000000001</v>
+      </c>
+      <c r="J326" t="inlineStr"/>
       <c r="K326" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13144,12 +12902,12 @@
         <v>31902723.18655125</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
-      </c>
-      <c r="I327" t="inlineStr"/>
-      <c r="J327" t="n">
-        <v>80</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I327" t="n">
+        <v>81</v>
+      </c>
+      <c r="J327" t="inlineStr"/>
       <c r="K327" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13183,12 +12941,12 @@
         <v>31936063.13869036</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
-      </c>
-      <c r="I328" t="inlineStr"/>
-      <c r="J328" t="n">
-        <v>80</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I328" t="n">
+        <v>81</v>
+      </c>
+      <c r="J328" t="inlineStr"/>
       <c r="K328" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13222,12 +12980,12 @@
         <v>31933848.13869036</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
-      </c>
-      <c r="I329" t="inlineStr"/>
-      <c r="J329" t="n">
-        <v>80</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I329" t="n">
+        <v>81.3</v>
+      </c>
+      <c r="J329" t="inlineStr"/>
       <c r="K329" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13261,12 +13019,12 @@
         <v>31933271.13869036</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
-      </c>
-      <c r="I330" t="inlineStr"/>
-      <c r="J330" t="n">
-        <v>80</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I330" t="n">
+        <v>81.09999999999999</v>
+      </c>
+      <c r="J330" t="inlineStr"/>
       <c r="K330" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13300,12 +13058,12 @@
         <v>31933271.13869036</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
-      </c>
-      <c r="I331" t="inlineStr"/>
-      <c r="J331" t="n">
-        <v>80</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I331" t="n">
+        <v>80.8</v>
+      </c>
+      <c r="J331" t="inlineStr"/>
       <c r="K331" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13339,12 +13097,12 @@
         <v>31908424.64359036</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
-      </c>
-      <c r="I332" t="inlineStr"/>
-      <c r="J332" t="n">
-        <v>80</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I332" t="n">
+        <v>80.8</v>
+      </c>
+      <c r="J332" t="inlineStr"/>
       <c r="K332" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13378,12 +13136,12 @@
         <v>31909042.70289037</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
-      </c>
-      <c r="I333" t="inlineStr"/>
-      <c r="J333" t="n">
-        <v>80</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I333" t="n">
+        <v>80.7</v>
+      </c>
+      <c r="J333" t="inlineStr"/>
       <c r="K333" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13417,12 +13175,12 @@
         <v>31911268.52609036</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
-      </c>
-      <c r="I334" t="inlineStr"/>
-      <c r="J334" t="n">
-        <v>80</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I334" t="n">
+        <v>80.90000000000001</v>
+      </c>
+      <c r="J334" t="inlineStr"/>
       <c r="K334" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13456,12 +13214,12 @@
         <v>31908457.73049036</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
-      </c>
-      <c r="I335" t="inlineStr"/>
-      <c r="J335" t="n">
-        <v>80</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I335" t="n">
+        <v>81</v>
+      </c>
+      <c r="J335" t="inlineStr"/>
       <c r="K335" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13495,12 +13253,12 @@
         <v>31908457.73049036</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
-      </c>
-      <c r="I336" t="inlineStr"/>
-      <c r="J336" t="n">
-        <v>80</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I336" t="n">
+        <v>80.8</v>
+      </c>
+      <c r="J336" t="inlineStr"/>
       <c r="K336" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13534,12 +13292,12 @@
         <v>31908457.73049036</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
-      </c>
-      <c r="I337" t="inlineStr"/>
-      <c r="J337" t="n">
-        <v>80</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I337" t="n">
+        <v>80.8</v>
+      </c>
+      <c r="J337" t="inlineStr"/>
       <c r="K337" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13573,12 +13331,12 @@
         <v>31933835.91139036</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
-      </c>
-      <c r="I338" t="inlineStr"/>
-      <c r="J338" t="n">
-        <v>80</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I338" t="n">
+        <v>80.8</v>
+      </c>
+      <c r="J338" t="inlineStr"/>
       <c r="K338" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13612,12 +13370,12 @@
         <v>31955542.76469037</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
-      </c>
-      <c r="I339" t="inlineStr"/>
-      <c r="J339" t="n">
-        <v>80</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I339" t="n">
+        <v>81</v>
+      </c>
+      <c r="J339" t="inlineStr"/>
       <c r="K339" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13651,12 +13409,12 @@
         <v>31955542.76469037</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
-      </c>
-      <c r="I340" t="inlineStr"/>
-      <c r="J340" t="n">
-        <v>80</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I340" t="n">
+        <v>81.09999999999999</v>
+      </c>
+      <c r="J340" t="inlineStr"/>
       <c r="K340" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13693,9 +13451,7 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="n">
-        <v>80</v>
-      </c>
+      <c r="J341" t="inlineStr"/>
       <c r="K341" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13732,9 +13488,7 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="n">
-        <v>80</v>
-      </c>
+      <c r="J342" t="inlineStr"/>
       <c r="K342" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13771,9 +13525,7 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="n">
-        <v>80</v>
-      </c>
+      <c r="J343" t="inlineStr"/>
       <c r="K343" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13810,9 +13562,7 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="n">
-        <v>80</v>
-      </c>
+      <c r="J344" t="inlineStr"/>
       <c r="K344" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13849,9 +13599,7 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="n">
-        <v>80</v>
-      </c>
+      <c r="J345" t="inlineStr"/>
       <c r="K345" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13885,12 +13633,12 @@
         <v>31989770.28859037</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
-      </c>
-      <c r="I346" t="inlineStr"/>
-      <c r="J346" t="n">
-        <v>80</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I346" t="n">
+        <v>81.5</v>
+      </c>
+      <c r="J346" t="inlineStr"/>
       <c r="K346" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13927,9 +13675,7 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="n">
-        <v>80</v>
-      </c>
+      <c r="J347" t="inlineStr"/>
       <c r="K347" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13966,9 +13712,7 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="n">
-        <v>80</v>
-      </c>
+      <c r="J348" t="inlineStr"/>
       <c r="K348" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14005,9 +13749,7 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="n">
-        <v>80</v>
-      </c>
+      <c r="J349" t="inlineStr"/>
       <c r="K349" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14044,9 +13786,7 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="n">
-        <v>80</v>
-      </c>
+      <c r="J350" t="inlineStr"/>
       <c r="K350" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14083,9 +13823,7 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="n">
-        <v>80</v>
-      </c>
+      <c r="J351" t="inlineStr"/>
       <c r="K351" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14122,9 +13860,7 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="n">
-        <v>80</v>
-      </c>
+      <c r="J352" t="inlineStr"/>
       <c r="K352" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14161,9 +13897,7 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="n">
-        <v>80</v>
-      </c>
+      <c r="J353" t="inlineStr"/>
       <c r="K353" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14200,9 +13934,7 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="n">
-        <v>80</v>
-      </c>
+      <c r="J354" t="inlineStr"/>
       <c r="K354" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14239,9 +13971,7 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="n">
-        <v>80</v>
-      </c>
+      <c r="J355" t="inlineStr"/>
       <c r="K355" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14278,9 +14008,7 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="n">
-        <v>80</v>
-      </c>
+      <c r="J356" t="inlineStr"/>
       <c r="K356" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14317,9 +14045,7 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="n">
-        <v>80</v>
-      </c>
+      <c r="J357" t="inlineStr"/>
       <c r="K357" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14356,9 +14082,7 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="n">
-        <v>80</v>
-      </c>
+      <c r="J358" t="inlineStr"/>
       <c r="K358" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14395,9 +14119,7 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="n">
-        <v>80</v>
-      </c>
+      <c r="J359" t="inlineStr"/>
       <c r="K359" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14434,9 +14156,7 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="n">
-        <v>80</v>
-      </c>
+      <c r="J360" t="inlineStr"/>
       <c r="K360" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14473,9 +14193,7 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="n">
-        <v>80</v>
-      </c>
+      <c r="J361" t="inlineStr"/>
       <c r="K361" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14512,9 +14230,7 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="n">
-        <v>80</v>
-      </c>
+      <c r="J362" t="inlineStr"/>
       <c r="K362" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14551,9 +14267,7 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="n">
-        <v>80</v>
-      </c>
+      <c r="J363" t="inlineStr"/>
       <c r="K363" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14590,9 +14304,7 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="n">
-        <v>80</v>
-      </c>
+      <c r="J364" t="inlineStr"/>
       <c r="K364" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14629,9 +14341,7 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="n">
-        <v>80</v>
-      </c>
+      <c r="J365" t="inlineStr"/>
       <c r="K365" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14668,9 +14378,7 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="n">
-        <v>80</v>
-      </c>
+      <c r="J366" t="inlineStr"/>
       <c r="K366" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14707,9 +14415,7 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="n">
-        <v>80</v>
-      </c>
+      <c r="J367" t="inlineStr"/>
       <c r="K367" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14746,9 +14452,7 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="n">
-        <v>80</v>
-      </c>
+      <c r="J368" t="inlineStr"/>
       <c r="K368" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14785,9 +14489,7 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="n">
-        <v>80</v>
-      </c>
+      <c r="J369" t="inlineStr"/>
       <c r="K369" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14824,9 +14526,7 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="n">
-        <v>80</v>
-      </c>
+      <c r="J370" t="inlineStr"/>
       <c r="K370" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14863,9 +14563,7 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="n">
-        <v>80</v>
-      </c>
+      <c r="J371" t="inlineStr"/>
       <c r="K371" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14902,9 +14600,7 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="n">
-        <v>80</v>
-      </c>
+      <c r="J372" t="inlineStr"/>
       <c r="K372" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14941,9 +14637,7 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="n">
-        <v>80</v>
-      </c>
+      <c r="J373" t="inlineStr"/>
       <c r="K373" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14980,9 +14674,7 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="n">
-        <v>80</v>
-      </c>
+      <c r="J374" t="inlineStr"/>
       <c r="K374" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15019,9 +14711,7 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="n">
-        <v>80</v>
-      </c>
+      <c r="J375" t="inlineStr"/>
       <c r="K375" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15058,9 +14748,7 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="n">
-        <v>80</v>
-      </c>
+      <c r="J376" t="inlineStr"/>
       <c r="K376" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15097,9 +14785,7 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="n">
-        <v>80</v>
-      </c>
+      <c r="J377" t="inlineStr"/>
       <c r="K377" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15136,9 +14822,7 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="n">
-        <v>80</v>
-      </c>
+      <c r="J378" t="inlineStr"/>
       <c r="K378" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15175,9 +14859,7 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="n">
-        <v>80</v>
-      </c>
+      <c r="J379" t="inlineStr"/>
       <c r="K379" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15214,9 +14896,7 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="n">
-        <v>80</v>
-      </c>
+      <c r="J380" t="inlineStr"/>
       <c r="K380" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15253,9 +14933,7 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="n">
-        <v>80</v>
-      </c>
+      <c r="J381" t="inlineStr"/>
       <c r="K381" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15292,9 +14970,7 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="n">
-        <v>80</v>
-      </c>
+      <c r="J382" t="inlineStr"/>
       <c r="K382" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15331,9 +15007,7 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="n">
-        <v>80</v>
-      </c>
+      <c r="J383" t="inlineStr"/>
       <c r="K383" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15370,9 +15044,7 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="n">
-        <v>80</v>
-      </c>
+      <c r="J384" t="inlineStr"/>
       <c r="K384" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15409,9 +15081,7 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="n">
-        <v>80</v>
-      </c>
+      <c r="J385" t="inlineStr"/>
       <c r="K385" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15448,9 +15118,7 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="n">
-        <v>80</v>
-      </c>
+      <c r="J386" t="inlineStr"/>
       <c r="K386" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15487,9 +15155,7 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="n">
-        <v>80</v>
-      </c>
+      <c r="J387" t="inlineStr"/>
       <c r="K387" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15526,9 +15192,7 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="n">
-        <v>80</v>
-      </c>
+      <c r="J388" t="inlineStr"/>
       <c r="K388" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15565,9 +15229,7 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="n">
-        <v>80</v>
-      </c>
+      <c r="J389" t="inlineStr"/>
       <c r="K389" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15604,9 +15266,7 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="n">
-        <v>80</v>
-      </c>
+      <c r="J390" t="inlineStr"/>
       <c r="K390" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15643,9 +15303,7 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="n">
-        <v>80</v>
-      </c>
+      <c r="J391" t="inlineStr"/>
       <c r="K391" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15682,9 +15340,7 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="n">
-        <v>80</v>
-      </c>
+      <c r="J392" t="inlineStr"/>
       <c r="K392" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15721,9 +15377,7 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="n">
-        <v>80</v>
-      </c>
+      <c r="J393" t="inlineStr"/>
       <c r="K393" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15760,9 +15414,7 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="n">
-        <v>80</v>
-      </c>
+      <c r="J394" t="inlineStr"/>
       <c r="K394" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15799,9 +15451,7 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="n">
-        <v>80</v>
-      </c>
+      <c r="J395" t="inlineStr"/>
       <c r="K395" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15838,9 +15488,7 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="n">
-        <v>80</v>
-      </c>
+      <c r="J396" t="inlineStr"/>
       <c r="K396" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15877,9 +15525,7 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="n">
-        <v>80</v>
-      </c>
+      <c r="J397" t="inlineStr"/>
       <c r="K397" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15916,9 +15562,7 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="n">
-        <v>80</v>
-      </c>
+      <c r="J398" t="inlineStr"/>
       <c r="K398" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15955,9 +15599,7 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="n">
-        <v>80</v>
-      </c>
+      <c r="J399" t="inlineStr"/>
       <c r="K399" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15994,9 +15636,7 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="n">
-        <v>80</v>
-      </c>
+      <c r="J400" t="inlineStr"/>
       <c r="K400" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16033,9 +15673,7 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="n">
-        <v>80</v>
-      </c>
+      <c r="J401" t="inlineStr"/>
       <c r="K401" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16072,9 +15710,7 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="n">
-        <v>80</v>
-      </c>
+      <c r="J402" t="inlineStr"/>
       <c r="K402" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16111,9 +15747,7 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="n">
-        <v>80</v>
-      </c>
+      <c r="J403" t="inlineStr"/>
       <c r="K403" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16150,9 +15784,7 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="n">
-        <v>80</v>
-      </c>
+      <c r="J404" t="inlineStr"/>
       <c r="K404" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16189,9 +15821,7 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="n">
-        <v>80</v>
-      </c>
+      <c r="J405" t="inlineStr"/>
       <c r="K405" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16228,9 +15858,7 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="n">
-        <v>80</v>
-      </c>
+      <c r="J406" t="inlineStr"/>
       <c r="K406" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16267,9 +15895,7 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="n">
-        <v>80</v>
-      </c>
+      <c r="J407" t="inlineStr"/>
       <c r="K407" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16306,9 +15932,7 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="n">
-        <v>80</v>
-      </c>
+      <c r="J408" t="inlineStr"/>
       <c r="K408" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16345,9 +15969,7 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="n">
-        <v>80</v>
-      </c>
+      <c r="J409" t="inlineStr"/>
       <c r="K409" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16384,9 +16006,7 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="n">
-        <v>80</v>
-      </c>
+      <c r="J410" t="inlineStr"/>
       <c r="K410" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16423,9 +16043,7 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="n">
-        <v>80</v>
-      </c>
+      <c r="J411" t="inlineStr"/>
       <c r="K411" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16462,9 +16080,7 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="n">
-        <v>80</v>
-      </c>
+      <c r="J412" t="inlineStr"/>
       <c r="K412" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16501,9 +16117,7 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="n">
-        <v>80</v>
-      </c>
+      <c r="J413" t="inlineStr"/>
       <c r="K413" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16540,9 +16154,7 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="n">
-        <v>80</v>
-      </c>
+      <c r="J414" t="inlineStr"/>
       <c r="K414" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16579,9 +16191,7 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="n">
-        <v>80</v>
-      </c>
+      <c r="J415" t="inlineStr"/>
       <c r="K415" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16618,9 +16228,7 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="n">
-        <v>80</v>
-      </c>
+      <c r="J416" t="inlineStr"/>
       <c r="K416" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16657,9 +16265,7 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="n">
-        <v>80</v>
-      </c>
+      <c r="J417" t="inlineStr"/>
       <c r="K417" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16696,9 +16302,7 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="n">
-        <v>80</v>
-      </c>
+      <c r="J418" t="inlineStr"/>
       <c r="K418" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16735,9 +16339,7 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="n">
-        <v>80</v>
-      </c>
+      <c r="J419" t="inlineStr"/>
       <c r="K419" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16774,9 +16376,7 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="n">
-        <v>80</v>
-      </c>
+      <c r="J420" t="inlineStr"/>
       <c r="K420" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16813,9 +16413,7 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="n">
-        <v>80</v>
-      </c>
+      <c r="J421" t="inlineStr"/>
       <c r="K421" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16852,9 +16450,7 @@
         <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="n">
-        <v>80</v>
-      </c>
+      <c r="J422" t="inlineStr"/>
       <c r="K422" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16891,9 +16487,7 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="n">
-        <v>80</v>
-      </c>
+      <c r="J423" t="inlineStr"/>
       <c r="K423" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16930,9 +16524,7 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="n">
-        <v>80</v>
-      </c>
+      <c r="J424" t="inlineStr"/>
       <c r="K424" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16969,9 +16561,7 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="n">
-        <v>80</v>
-      </c>
+      <c r="J425" t="inlineStr"/>
       <c r="K425" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17008,9 +16598,7 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="n">
-        <v>80</v>
-      </c>
+      <c r="J426" t="inlineStr"/>
       <c r="K426" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17047,9 +16635,7 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="n">
-        <v>80</v>
-      </c>
+      <c r="J427" t="inlineStr"/>
       <c r="K427" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17086,9 +16672,7 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="n">
-        <v>80</v>
-      </c>
+      <c r="J428" t="inlineStr"/>
       <c r="K428" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17125,9 +16709,7 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="n">
-        <v>80</v>
-      </c>
+      <c r="J429" t="inlineStr"/>
       <c r="K429" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17164,9 +16746,7 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="n">
-        <v>80</v>
-      </c>
+      <c r="J430" t="inlineStr"/>
       <c r="K430" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17203,9 +16783,7 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="n">
-        <v>80</v>
-      </c>
+      <c r="J431" t="inlineStr"/>
       <c r="K431" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17242,9 +16820,7 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="n">
-        <v>80</v>
-      </c>
+      <c r="J432" t="inlineStr"/>
       <c r="K432" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17281,9 +16857,7 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="n">
-        <v>80</v>
-      </c>
+      <c r="J433" t="inlineStr"/>
       <c r="K433" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17320,9 +16894,7 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="n">
-        <v>80</v>
-      </c>
+      <c r="J434" t="inlineStr"/>
       <c r="K434" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17359,9 +16931,7 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="n">
-        <v>80</v>
-      </c>
+      <c r="J435" t="inlineStr"/>
       <c r="K435" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17398,9 +16968,7 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="n">
-        <v>80</v>
-      </c>
+      <c r="J436" t="inlineStr"/>
       <c r="K436" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17437,9 +17005,7 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="n">
-        <v>80</v>
-      </c>
+      <c r="J437" t="inlineStr"/>
       <c r="K437" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17476,9 +17042,7 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="n">
-        <v>80</v>
-      </c>
+      <c r="J438" t="inlineStr"/>
       <c r="K438" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17515,9 +17079,7 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="n">
-        <v>80</v>
-      </c>
+      <c r="J439" t="inlineStr"/>
       <c r="K439" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17554,9 +17116,7 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="n">
-        <v>80</v>
-      </c>
+      <c r="J440" t="inlineStr"/>
       <c r="K440" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17593,9 +17153,7 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="n">
-        <v>80</v>
-      </c>
+      <c r="J441" t="inlineStr"/>
       <c r="K441" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17632,9 +17190,7 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="n">
-        <v>80</v>
-      </c>
+      <c r="J442" t="inlineStr"/>
       <c r="K442" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17671,9 +17227,7 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="n">
-        <v>80</v>
-      </c>
+      <c r="J443" t="inlineStr"/>
       <c r="K443" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17710,9 +17264,7 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="n">
-        <v>80</v>
-      </c>
+      <c r="J444" t="inlineStr"/>
       <c r="K444" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17749,9 +17301,7 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="n">
-        <v>80</v>
-      </c>
+      <c r="J445" t="inlineStr"/>
       <c r="K445" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17788,9 +17338,7 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="n">
-        <v>80</v>
-      </c>
+      <c r="J446" t="inlineStr"/>
       <c r="K446" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17827,9 +17375,7 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="n">
-        <v>80</v>
-      </c>
+      <c r="J447" t="inlineStr"/>
       <c r="K447" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17863,23 +17409,19 @@
         <v>41257734.45353419</v>
       </c>
       <c r="H448" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="n">
-        <v>80</v>
-      </c>
+      <c r="J448" t="inlineStr"/>
       <c r="K448" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L448" t="n">
-        <v>1.2375</v>
-      </c>
-      <c r="M448" t="n">
-        <v>1.006289308176101</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M448" t="inlineStr"/>
     </row>
     <row r="449">
       <c r="A449" s="1" t="n">
@@ -17904,11 +17446,15 @@
         <v>40380031.06268939</v>
       </c>
       <c r="H449" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -17937,11 +17483,15 @@
         <v>41017771.00807668</v>
       </c>
       <c r="H450" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -17970,11 +17520,15 @@
         <v>40339781.16237668</v>
       </c>
       <c r="H451" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -18007,7 +17561,11 @@
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -18040,7 +17598,11 @@
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -18073,7 +17635,11 @@
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -18106,7 +17672,11 @@
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -18139,7 +17709,11 @@
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -18172,7 +17746,11 @@
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -18205,7 +17783,11 @@
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -18234,14 +17816,16 @@
         <v>41432203.67192292</v>
       </c>
       <c r="H459" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
-      <c r="L459" t="n">
-        <v>1</v>
-      </c>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L459" t="inlineStr"/>
       <c r="M459" t="inlineStr"/>
     </row>
     <row r="460">
@@ -18267,7 +17851,7 @@
         <v>41920382.5902281</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -18300,7 +17884,7 @@
         <v>42535253.43902811</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -18333,7 +17917,7 @@
         <v>41962241.88324428</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -18366,7 +17950,7 @@
         <v>42175579.17571039</v>
       </c>
       <c r="H463" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -18399,7 +17983,7 @@
         <v>42175579.17571039</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -18432,7 +18016,7 @@
         <v>41919462.46329443</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -18465,7 +18049,7 @@
         <v>41725450.99229443</v>
       </c>
       <c r="H466" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -18498,7 +18082,7 @@
         <v>41550802.54735037</v>
       </c>
       <c r="H467" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -18531,7 +18115,7 @@
         <v>41865660.20115037</v>
       </c>
       <c r="H468" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -18564,7 +18148,7 @@
         <v>42095791.93415038</v>
       </c>
       <c r="H469" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -18597,7 +18181,7 @@
         <v>41911428.27145038</v>
       </c>
       <c r="H470" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -18630,7 +18214,7 @@
         <v>42134156.44265038</v>
       </c>
       <c r="H471" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -18663,7 +18247,7 @@
         <v>41923866.02525038</v>
       </c>
       <c r="H472" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -18696,7 +18280,7 @@
         <v>41639631.86675037</v>
       </c>
       <c r="H473" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -18729,7 +18313,7 @@
         <v>41862663.75995038</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -18762,7 +18346,7 @@
         <v>41518399.93505038</v>
       </c>
       <c r="H475" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -18795,7 +18379,7 @@
         <v>41518399.93505038</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -19224,7 +18808,7 @@
         <v>42890801.77071565</v>
       </c>
       <c r="H489" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -19257,7 +18841,7 @@
         <v>44412464.04257372</v>
       </c>
       <c r="H490" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -19455,7 +19039,7 @@
         <v>43615973.29257812</v>
       </c>
       <c r="H496" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -19488,7 +19072,7 @@
         <v>43482106.18997812</v>
       </c>
       <c r="H497" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -19521,7 +19105,7 @@
         <v>43673379.61047813</v>
       </c>
       <c r="H498" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -19554,7 +19138,7 @@
         <v>43442349.47201025</v>
       </c>
       <c r="H499" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -19587,7 +19171,7 @@
         <v>43283812.42341024</v>
       </c>
       <c r="H500" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -19620,7 +19204,7 @@
         <v>43212974.08521024</v>
       </c>
       <c r="H501" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -19653,7 +19237,7 @@
         <v>43140945.79591024</v>
       </c>
       <c r="H502" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -19686,7 +19270,7 @@
         <v>43231151.83921024</v>
       </c>
       <c r="H503" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -19719,7 +19303,7 @@
         <v>43667176.21271024</v>
       </c>
       <c r="H504" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -19752,7 +19336,7 @@
         <v>44309141.85181024</v>
       </c>
       <c r="H505" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -19785,7 +19369,7 @@
         <v>44747104.97148109</v>
       </c>
       <c r="H506" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -19818,7 +19402,7 @@
         <v>44988013.76792305</v>
       </c>
       <c r="H507" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -19851,7 +19435,7 @@
         <v>44631385.72251782</v>
       </c>
       <c r="H508" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -19884,7 +19468,7 @@
         <v>44977580.36780833</v>
       </c>
       <c r="H509" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -19917,7 +19501,7 @@
         <v>45091114.78320833</v>
       </c>
       <c r="H510" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -19950,7 +19534,7 @@
         <v>44871144.58970834</v>
       </c>
       <c r="H511" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -19983,7 +19567,7 @@
         <v>44944504.35342021</v>
       </c>
       <c r="H512" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -20016,7 +19600,7 @@
         <v>44944504.35342021</v>
       </c>
       <c r="H513" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -20049,7 +19633,7 @@
         <v>45131176.9218156</v>
       </c>
       <c r="H514" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -20082,7 +19666,7 @@
         <v>45302542.07661559</v>
       </c>
       <c r="H515" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -20115,7 +19699,7 @@
         <v>46329789.14611559</v>
       </c>
       <c r="H516" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -20148,7 +19732,7 @@
         <v>46329789.14611559</v>
       </c>
       <c r="H517" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -20181,7 +19765,7 @@
         <v>46272396.24508426</v>
       </c>
       <c r="H518" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -20214,7 +19798,7 @@
         <v>46054191.20679409</v>
       </c>
       <c r="H519" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -20247,7 +19831,7 @@
         <v>45932655.92539409</v>
       </c>
       <c r="H520" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -20280,7 +19864,7 @@
         <v>45957339.63278365</v>
       </c>
       <c r="H521" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -20313,7 +19897,7 @@
         <v>45876735.88088365</v>
       </c>
       <c r="H522" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -20511,7 +20095,7 @@
         <v>46339902.73018463</v>
       </c>
       <c r="H528" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -20544,7 +20128,7 @@
         <v>46586413.76482776</v>
       </c>
       <c r="H529" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -20577,7 +20161,7 @@
         <v>46197972.28662775</v>
       </c>
       <c r="H530" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -20610,7 +20194,7 @@
         <v>46197972.28662775</v>
       </c>
       <c r="H531" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -20643,7 +20227,7 @@
         <v>46159630.50032775</v>
       </c>
       <c r="H532" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -20676,7 +20260,7 @@
         <v>46290958.97212775</v>
       </c>
       <c r="H533" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -20709,7 +20293,7 @@
         <v>45965024.84032775</v>
       </c>
       <c r="H534" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -20742,7 +20326,7 @@
         <v>46095844.04672775</v>
       </c>
       <c r="H535" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -20775,7 +20359,7 @@
         <v>46007916.98622774</v>
       </c>
       <c r="H536" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -20808,7 +20392,7 @@
         <v>46007916.98622774</v>
       </c>
       <c r="H537" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -20841,7 +20425,7 @@
         <v>46104131.80072774</v>
       </c>
       <c r="H538" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -20874,7 +20458,7 @@
         <v>45827045.28442774</v>
       </c>
       <c r="H539" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -20907,7 +20491,7 @@
         <v>45410599.46972774</v>
       </c>
       <c r="H540" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -20940,7 +20524,7 @@
         <v>45378709.86275104</v>
       </c>
       <c r="H541" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -20973,7 +20557,7 @@
         <v>45559877.93275104</v>
       </c>
       <c r="H542" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -21006,7 +20590,7 @@
         <v>45650288.79995104</v>
       </c>
       <c r="H543" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -21039,7 +20623,7 @@
         <v>45518467.02165104</v>
       </c>
       <c r="H544" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -21072,7 +20656,7 @@
         <v>45383183.88445104</v>
       </c>
       <c r="H545" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -21105,7 +20689,7 @@
         <v>45067167.87375104</v>
       </c>
       <c r="H546" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -21138,7 +20722,7 @@
         <v>45299597.13375103</v>
       </c>
       <c r="H547" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -21171,7 +20755,7 @@
         <v>45299597.13375103</v>
       </c>
       <c r="H548" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -21204,7 +20788,7 @@
         <v>45103373.18925104</v>
       </c>
       <c r="H549" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -21237,7 +20821,7 @@
         <v>45180709.20355104</v>
       </c>
       <c r="H550" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -21336,7 +20920,7 @@
         <v>45622767.11115104</v>
       </c>
       <c r="H553" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -21996,7 +21580,7 @@
         <v>44605815.60148846</v>
       </c>
       <c r="H573" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
@@ -22029,7 +21613,7 @@
         <v>44530577.17358846</v>
       </c>
       <c r="H574" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
@@ -22062,7 +21646,7 @@
         <v>44079615.24898846</v>
       </c>
       <c r="H575" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
@@ -22095,7 +21679,7 @@
         <v>43910320.17668846</v>
       </c>
       <c r="H576" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
@@ -22128,7 +21712,7 @@
         <v>43910320.17668846</v>
       </c>
       <c r="H577" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
@@ -22161,7 +21745,7 @@
         <v>43825033.15478846</v>
       </c>
       <c r="H578" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
@@ -22194,7 +21778,7 @@
         <v>43669500.21334547</v>
       </c>
       <c r="H579" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
@@ -22227,7 +21811,7 @@
         <v>43344300.04895872</v>
       </c>
       <c r="H580" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
@@ -22260,7 +21844,7 @@
         <v>43036244.34587881</v>
       </c>
       <c r="H581" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
@@ -22293,7 +21877,7 @@
         <v>43099519.11301213</v>
       </c>
       <c r="H582" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
@@ -22326,7 +21910,7 @@
         <v>42418420.81411213</v>
       </c>
       <c r="H583" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
@@ -22359,7 +21943,7 @@
         <v>42418420.81411213</v>
       </c>
       <c r="H584" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
@@ -22392,7 +21976,7 @@
         <v>42491911.08884934</v>
       </c>
       <c r="H585" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
@@ -22425,7 +22009,7 @@
         <v>42491911.08884934</v>
       </c>
       <c r="H586" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
@@ -22458,7 +22042,7 @@
         <v>42555051.29364665</v>
       </c>
       <c r="H587" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
@@ -22491,7 +22075,7 @@
         <v>42603917.69424665</v>
       </c>
       <c r="H588" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
@@ -22524,7 +22108,7 @@
         <v>42642279.95314665</v>
       </c>
       <c r="H589" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
@@ -22557,7 +22141,7 @@
         <v>42427322.02413992</v>
       </c>
       <c r="H590" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
@@ -22590,7 +22174,7 @@
         <v>42436542.96913992</v>
       </c>
       <c r="H591" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
@@ -22623,7 +22207,7 @@
         <v>42381074.59203992</v>
       </c>
       <c r="H592" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
@@ -22656,7 +22240,7 @@
         <v>41985068.68633992</v>
       </c>
       <c r="H593" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
@@ -22689,7 +22273,7 @@
         <v>41820214.13843992</v>
       </c>
       <c r="H594" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
@@ -22722,7 +22306,7 @@
         <v>41703243.26733992</v>
       </c>
       <c r="H595" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
@@ -22755,7 +22339,7 @@
         <v>41818250.30103992</v>
       </c>
       <c r="H596" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
@@ -22788,7 +22372,7 @@
         <v>41726057.97643155</v>
       </c>
       <c r="H597" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
@@ -22821,7 +22405,7 @@
         <v>41589184.40883155</v>
       </c>
       <c r="H598" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
@@ -22854,7 +22438,7 @@
         <v>41669293.87828196</v>
       </c>
       <c r="H599" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
@@ -22887,7 +22471,7 @@
         <v>41529531.61738196</v>
       </c>
       <c r="H600" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
@@ -22920,7 +22504,7 @@
         <v>41529531.61738196</v>
       </c>
       <c r="H601" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
@@ -22953,7 +22537,7 @@
         <v>41745718.84488196</v>
       </c>
       <c r="H602" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
@@ -22986,7 +22570,7 @@
         <v>41799817.49158196</v>
       </c>
       <c r="H603" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
@@ -23019,7 +22603,7 @@
         <v>41799817.49158196</v>
       </c>
       <c r="H604" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
@@ -23052,7 +22636,7 @@
         <v>41767808.05738197</v>
       </c>
       <c r="H605" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
@@ -23085,7 +22669,7 @@
         <v>41767808.05738197</v>
       </c>
       <c r="H606" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
@@ -23118,7 +22702,7 @@
         <v>41899138.04628196</v>
       </c>
       <c r="H607" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
@@ -23151,7 +22735,7 @@
         <v>42000532.02038196</v>
       </c>
       <c r="H608" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
@@ -23184,7 +22768,7 @@
         <v>42088433.20838197</v>
       </c>
       <c r="H609" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
@@ -23217,7 +22801,7 @@
         <v>42211434.97248197</v>
       </c>
       <c r="H610" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
@@ -23250,7 +22834,7 @@
         <v>42361212.65502723</v>
       </c>
       <c r="H611" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
@@ -23283,7 +22867,7 @@
         <v>42443816.67452724</v>
       </c>
       <c r="H612" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
@@ -23316,7 +22900,7 @@
         <v>42338550.67592724</v>
       </c>
       <c r="H613" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
@@ -23349,7 +22933,7 @@
         <v>42363058.67312723</v>
       </c>
       <c r="H614" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
@@ -23382,7 +22966,7 @@
         <v>42362058.67312723</v>
       </c>
       <c r="H615" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
@@ -23415,7 +22999,7 @@
         <v>42362058.67312723</v>
       </c>
       <c r="H616" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
@@ -23448,7 +23032,7 @@
         <v>42362058.67312723</v>
       </c>
       <c r="H617" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
@@ -23481,7 +23065,7 @@
         <v>42299929.15852723</v>
       </c>
       <c r="H618" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
@@ -23514,7 +23098,7 @@
         <v>42299929.15852723</v>
       </c>
       <c r="H619" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
@@ -23547,7 +23131,7 @@
         <v>42315128.58980696</v>
       </c>
       <c r="H620" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
@@ -23580,7 +23164,7 @@
         <v>42478931.23860696</v>
       </c>
       <c r="H621" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
@@ -23613,7 +23197,7 @@
         <v>42156175.17120696</v>
       </c>
       <c r="H622" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
@@ -23646,7 +23230,7 @@
         <v>42243469.96240696</v>
       </c>
       <c r="H623" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
@@ -23679,7 +23263,7 @@
         <v>42323296.76270696</v>
       </c>
       <c r="H624" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
@@ -23712,7 +23296,7 @@
         <v>42478375.80670696</v>
       </c>
       <c r="H625" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
@@ -23745,7 +23329,7 @@
         <v>42424916.96260696</v>
       </c>
       <c r="H626" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
@@ -23778,7 +23362,7 @@
         <v>42424916.96260696</v>
       </c>
       <c r="H627" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
@@ -23811,7 +23395,7 @@
         <v>42424916.96260696</v>
       </c>
       <c r="H628" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
@@ -23844,7 +23428,7 @@
         <v>42262284.03310696</v>
       </c>
       <c r="H629" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
@@ -23877,7 +23461,7 @@
         <v>41998247.92065129</v>
       </c>
       <c r="H630" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
@@ -23910,7 +23494,7 @@
         <v>42027278.71475129</v>
       </c>
       <c r="H631" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
@@ -23943,7 +23527,7 @@
         <v>42085105.92695129</v>
       </c>
       <c r="H632" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
@@ -23976,7 +23560,7 @@
         <v>42076141.25697604</v>
       </c>
       <c r="H633" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
@@ -24009,7 +23593,7 @@
         <v>42070355.75897603</v>
       </c>
       <c r="H634" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
@@ -24042,7 +23626,7 @@
         <v>42070355.75897603</v>
       </c>
       <c r="H635" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
@@ -24075,7 +23659,7 @@
         <v>42093147.55617604</v>
       </c>
       <c r="H636" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
@@ -24108,7 +23692,7 @@
         <v>42110745.52497604</v>
       </c>
       <c r="H637" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
@@ -24141,7 +23725,7 @@
         <v>42110745.52497604</v>
       </c>
       <c r="H638" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
@@ -24174,7 +23758,7 @@
         <v>42061542.32473864</v>
       </c>
       <c r="H639" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
@@ -24207,7 +23791,7 @@
         <v>42041689.46183864</v>
       </c>
       <c r="H640" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
@@ -24240,7 +23824,7 @@
         <v>42041689.46183864</v>
       </c>
       <c r="H641" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
@@ -24273,7 +23857,7 @@
         <v>42019703.59793864</v>
       </c>
       <c r="H642" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
@@ -24306,7 +23890,7 @@
         <v>42014752.98513864</v>
       </c>
       <c r="H643" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
@@ -24339,7 +23923,7 @@
         <v>41833661.18803864</v>
       </c>
       <c r="H644" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
@@ -24372,7 +23956,7 @@
         <v>41806169.82975966</v>
       </c>
       <c r="H645" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
@@ -24405,7 +23989,7 @@
         <v>41835545.45468524</v>
       </c>
       <c r="H646" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
@@ -24438,7 +24022,7 @@
         <v>41653245.58068524</v>
       </c>
       <c r="H647" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
@@ -24471,7 +24055,7 @@
         <v>41801690.58454426</v>
       </c>
       <c r="H648" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
@@ -24504,7 +24088,7 @@
         <v>41801690.58454426</v>
       </c>
       <c r="H649" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
@@ -24537,7 +24121,7 @@
         <v>41797827.99654426</v>
       </c>
       <c r="H650" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
@@ -24570,7 +24154,7 @@
         <v>41797827.99654426</v>
       </c>
       <c r="H651" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
@@ -24603,7 +24187,7 @@
         <v>41797827.99654426</v>
       </c>
       <c r="H652" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
@@ -24636,7 +24220,7 @@
         <v>41833655.77784427</v>
       </c>
       <c r="H653" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
@@ -24669,7 +24253,7 @@
         <v>41776588.41784427</v>
       </c>
       <c r="H654" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
@@ -24702,7 +24286,7 @@
         <v>41844206.82124426</v>
       </c>
       <c r="H655" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
@@ -24735,7 +24319,7 @@
         <v>41811093.45284426</v>
       </c>
       <c r="H656" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
@@ -24768,7 +24352,7 @@
         <v>41811093.45284426</v>
       </c>
       <c r="H657" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
@@ -24801,7 +24385,7 @@
         <v>41812663.42184426</v>
       </c>
       <c r="H658" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
@@ -24834,7 +24418,7 @@
         <v>41809667.06124426</v>
       </c>
       <c r="H659" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
@@ -24867,7 +24451,7 @@
         <v>41700252.73154426</v>
       </c>
       <c r="H660" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
@@ -24900,7 +24484,7 @@
         <v>44107969.52254426</v>
       </c>
       <c r="H661" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
@@ -24933,7 +24517,7 @@
         <v>44102292.20514426</v>
       </c>
       <c r="H662" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
@@ -24966,7 +24550,7 @@
         <v>44054095.02044426</v>
       </c>
       <c r="H663" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
@@ -24999,7 +24583,7 @@
         <v>44098450.66644426</v>
       </c>
       <c r="H664" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
@@ -25032,7 +24616,7 @@
         <v>46706330.74609431</v>
       </c>
       <c r="H665" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
@@ -25065,7 +24649,7 @@
         <v>46680346.93859431</v>
       </c>
       <c r="H666" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
@@ -25098,7 +24682,7 @@
         <v>46732708.44067282</v>
       </c>
       <c r="H667" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
@@ -25131,7 +24715,7 @@
         <v>43924454.32147282</v>
       </c>
       <c r="H668" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
@@ -25197,7 +24781,7 @@
         <v>43894249.41857282</v>
       </c>
       <c r="H670" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
@@ -25296,7 +24880,7 @@
         <v>43944179.70007053</v>
       </c>
       <c r="H673" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
@@ -25329,7 +24913,7 @@
         <v>43890760.42788938</v>
       </c>
       <c r="H674" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
@@ -25362,7 +24946,7 @@
         <v>43890760.42788938</v>
       </c>
       <c r="H675" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
@@ -25395,7 +24979,7 @@
         <v>43890760.42788938</v>
       </c>
       <c r="H676" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
@@ -25428,7 +25012,7 @@
         <v>43774422.70718937</v>
       </c>
       <c r="H677" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
@@ -25461,7 +25045,7 @@
         <v>43774422.70718937</v>
       </c>
       <c r="H678" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
@@ -25494,7 +25078,7 @@
         <v>43777763.50221898</v>
       </c>
       <c r="H679" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
@@ -25527,7 +25111,7 @@
         <v>41758963.74221898</v>
       </c>
       <c r="H680" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
@@ -25560,7 +25144,7 @@
         <v>41582672.18181898</v>
       </c>
       <c r="H681" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
@@ -25593,7 +25177,7 @@
         <v>41498818.37881897</v>
       </c>
       <c r="H682" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
@@ -25626,7 +25210,7 @@
         <v>41498818.37881897</v>
       </c>
       <c r="H683" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
@@ -25659,7 +25243,7 @@
         <v>41359414.28371897</v>
       </c>
       <c r="H684" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
@@ -25692,7 +25276,7 @@
         <v>41359414.28371897</v>
       </c>
       <c r="H685" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
@@ -25725,7 +25309,7 @@
         <v>41359414.28371897</v>
       </c>
       <c r="H686" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
@@ -25758,7 +25342,7 @@
         <v>41205238.50211897</v>
       </c>
       <c r="H687" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
@@ -25791,7 +25375,7 @@
         <v>41059399.11131898</v>
       </c>
       <c r="H688" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
@@ -25824,7 +25408,7 @@
         <v>41138731.19801898</v>
       </c>
       <c r="H689" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
@@ -25857,7 +25441,7 @@
         <v>37305453.45111898</v>
       </c>
       <c r="H690" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
@@ -25890,7 +25474,7 @@
         <v>39806739.61271898</v>
       </c>
       <c r="H691" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
@@ -25923,7 +25507,7 @@
         <v>39806739.61271898</v>
       </c>
       <c r="H692" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
@@ -25956,7 +25540,7 @@
         <v>40443204.54371898</v>
       </c>
       <c r="H693" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
@@ -25989,7 +25573,7 @@
         <v>40443204.54371898</v>
       </c>
       <c r="H694" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
@@ -26022,7 +25606,7 @@
         <v>40377772.94911898</v>
       </c>
       <c r="H695" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
@@ -26055,7 +25639,7 @@
         <v>40377772.94911898</v>
       </c>
       <c r="H696" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
@@ -26088,7 +25672,7 @@
         <v>40318358.25321898</v>
       </c>
       <c r="H697" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
@@ -26121,7 +25705,7 @@
         <v>40318358.25321898</v>
       </c>
       <c r="H698" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
@@ -26154,7 +25738,7 @@
         <v>40243537.21821898</v>
       </c>
       <c r="H699" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
@@ -26187,7 +25771,7 @@
         <v>40190390.96151898</v>
       </c>
       <c r="H700" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
@@ -26220,7 +25804,7 @@
         <v>39501959.96081898</v>
       </c>
       <c r="H701" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
@@ -26253,7 +25837,7 @@
         <v>39523391.17651898</v>
       </c>
       <c r="H702" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
@@ -26319,7 +25903,7 @@
         <v>39581571.74351899</v>
       </c>
       <c r="H704" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
@@ -26352,7 +25936,7 @@
         <v>44392808.69651899</v>
       </c>
       <c r="H705" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
@@ -26385,7 +25969,7 @@
         <v>44349813.10561899</v>
       </c>
       <c r="H706" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
@@ -26418,7 +26002,7 @@
         <v>44349813.10561899</v>
       </c>
       <c r="H707" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
@@ -26814,7 +26398,7 @@
         <v>42662327.13015909</v>
       </c>
       <c r="H719" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
@@ -26847,7 +26431,7 @@
         <v>43029862.4268591</v>
       </c>
       <c r="H720" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
@@ -26880,7 +26464,7 @@
         <v>43029862.4268591</v>
       </c>
       <c r="H721" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
@@ -26913,7 +26497,7 @@
         <v>43065369.22505909</v>
       </c>
       <c r="H722" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
@@ -26946,7 +26530,7 @@
         <v>43065369.22505909</v>
       </c>
       <c r="H723" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
@@ -26979,7 +26563,7 @@
         <v>43088695.20267284</v>
       </c>
       <c r="H724" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
@@ -27012,7 +26596,7 @@
         <v>43015279.99787284</v>
       </c>
       <c r="H725" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
@@ -27045,7 +26629,7 @@
         <v>42968060.20447284</v>
       </c>
       <c r="H726" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
@@ -27078,7 +26662,7 @@
         <v>42968060.20447284</v>
       </c>
       <c r="H727" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
@@ -27111,7 +26695,7 @@
         <v>42968060.20447284</v>
       </c>
       <c r="H728" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
@@ -27144,7 +26728,7 @@
         <v>42853366.95467284</v>
       </c>
       <c r="H729" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
@@ -27177,7 +26761,7 @@
         <v>42853366.95467284</v>
       </c>
       <c r="H730" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
@@ -27210,7 +26794,7 @@
         <v>42791031.56217285</v>
       </c>
       <c r="H731" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
@@ -27243,7 +26827,7 @@
         <v>42791031.56217285</v>
       </c>
       <c r="H732" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
@@ -27276,7 +26860,7 @@
         <v>42705732.59837285</v>
       </c>
       <c r="H733" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
@@ -27309,7 +26893,7 @@
         <v>42955110.76887285</v>
       </c>
       <c r="H734" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
@@ -27342,7 +26926,7 @@
         <v>43101612.77127285</v>
       </c>
       <c r="H735" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
@@ -27375,7 +26959,7 @@
         <v>43101542.77127285</v>
       </c>
       <c r="H736" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
@@ -27804,7 +27388,7 @@
         <v>41863066.50788979</v>
       </c>
       <c r="H749" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
@@ -27903,7 +27487,7 @@
         <v>41843339.9706898</v>
       </c>
       <c r="H752" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
@@ -27914,6 +27498,6 @@
       <c r="M752" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-05 BackTest XLM.xlsx
+++ b/BackTest/2019-11-05 BackTest XLM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-3937562.78592516</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,10 +484,14 @@
         <v>-3937562.78592516</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>79.90000000000001</v>
+      </c>
+      <c r="J3" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -517,11 +521,19 @@
         <v>-3937562.78592516</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>79.90000000000001</v>
+      </c>
+      <c r="J4" t="n">
+        <v>79.90000000000001</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,19 @@
         <v>-3937562.78592516</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>79.90000000000001</v>
+      </c>
+      <c r="J5" t="n">
+        <v>79.90000000000001</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,10 +603,14 @@
         <v>-3937562.78592516</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>79.90000000000001</v>
+      </c>
+      <c r="J6" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
@@ -616,11 +640,19 @@
         <v>-3937562.78592516</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>79.90000000000001</v>
+      </c>
+      <c r="J7" t="n">
+        <v>79.90000000000001</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -649,11 +681,19 @@
         <v>-3937562.78592516</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>79.90000000000001</v>
+      </c>
+      <c r="J8" t="n">
+        <v>79.90000000000001</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -682,10 +722,14 @@
         <v>-3937562.78592516</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>79.90000000000001</v>
+      </c>
+      <c r="J9" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
@@ -715,11 +759,19 @@
         <v>-3938260.68592516</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>79.90000000000001</v>
+      </c>
+      <c r="J10" t="n">
+        <v>79.90000000000001</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -753,7 +805,9 @@
       <c r="I11" t="n">
         <v>79.7</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K11" t="inlineStr">
         <is>
           <t>매수 체결</t>
@@ -787,10 +841,14 @@
         <v>-3939992.657025159</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>79.59999999999999</v>
+      </c>
+      <c r="J12" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K12" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -824,10 +882,14 @@
         <v>2010007.342974841</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>79.5</v>
+      </c>
+      <c r="J13" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K13" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -864,7 +926,9 @@
         <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K14" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -898,10 +962,14 @@
         <v>2009328.987374841</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>79.5</v>
+      </c>
+      <c r="J15" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K15" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -935,10 +1003,14 @@
         <v>5859328.98737484</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>79.59999999999999</v>
+      </c>
+      <c r="J16" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K16" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -975,7 +1047,9 @@
         <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K17" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1012,7 +1086,9 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K18" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1046,10 +1122,14 @@
         <v>5859328.98737484</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>79.90000000000001</v>
+      </c>
+      <c r="J19" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K19" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1083,10 +1163,14 @@
         <v>5859328.98737484</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>79.90000000000001</v>
+      </c>
+      <c r="J20" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K20" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1123,7 +1207,9 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K21" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1157,12 +1243,12 @@
         <v>9709328.98737484</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>80</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K22" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1199,7 +1285,9 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K23" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1236,7 +1324,9 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K24" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1273,7 +1363,9 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K25" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1310,7 +1402,9 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K26" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1347,7 +1441,9 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K27" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1384,7 +1480,9 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K28" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1418,10 +1516,14 @@
         <v>7265190.89267484</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>80</v>
+      </c>
+      <c r="J29" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K29" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1458,7 +1560,9 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K30" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1492,10 +1596,14 @@
         <v>7256257.73127484</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>80.2</v>
+      </c>
+      <c r="J31" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K31" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1529,10 +1637,14 @@
         <v>7256257.73127484</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>80</v>
+      </c>
+      <c r="J32" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K32" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1566,10 +1678,14 @@
         <v>9706257.731274839</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>80</v>
+      </c>
+      <c r="J33" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K33" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1606,7 +1722,9 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K34" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1640,10 +1758,14 @@
         <v>9705679.286374839</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>79.90000000000001</v>
+      </c>
+      <c r="J35" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K35" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1677,10 +1799,14 @@
         <v>10757317.28627484</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>79.90000000000001</v>
+      </c>
+      <c r="J36" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K36" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1714,10 +1840,14 @@
         <v>10757317.28627484</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>80</v>
+      </c>
+      <c r="J37" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K37" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1751,12 +1881,12 @@
         <v>13557317.28627484</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>80</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K38" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1795,7 +1925,9 @@
       <c r="I39" t="n">
         <v>80.09999999999999</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1832,7 +1964,9 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1866,12 +2000,12 @@
         <v>13557354.69267484</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>80.09999999999999</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1905,12 +2039,12 @@
         <v>13554354.69267484</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>80.2</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1944,10 +2078,14 @@
         <v>13554354.69267484</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>80</v>
+      </c>
+      <c r="J43" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1984,7 +2122,9 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2021,7 +2161,9 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2058,7 +2200,9 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2092,12 +2236,12 @@
         <v>13627783.47107484</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>80.40000000000001</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2131,12 +2275,12 @@
         <v>13627783.47107484</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>80.40000000000001</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2170,12 +2314,12 @@
         <v>13622628.92857484</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>80.40000000000001</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2214,7 +2358,9 @@
       <c r="I50" t="n">
         <v>80</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2253,7 +2399,9 @@
       <c r="I51" t="n">
         <v>80.09999999999999</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2287,12 +2435,12 @@
         <v>13622878.61637484</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>80.09999999999999</v>
-      </c>
-      <c r="J52" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2329,7 +2477,9 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2363,10 +2513,14 @@
         <v>13622748.51687484</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>80</v>
+      </c>
+      <c r="J54" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2400,10 +2554,14 @@
         <v>13622748.51687484</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>80</v>
+      </c>
+      <c r="J55" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2442,7 +2600,9 @@
       <c r="I56" t="n">
         <v>80</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2481,7 +2641,9 @@
       <c r="I57" t="n">
         <v>80.3</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2520,7 +2682,9 @@
       <c r="I58" t="n">
         <v>79.90000000000001</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2559,7 +2723,9 @@
       <c r="I59" t="n">
         <v>79.8</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2598,7 +2764,9 @@
       <c r="I60" t="n">
         <v>79.8</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2635,7 +2803,9 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2672,7 +2842,9 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2709,7 +2881,9 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2743,12 +2917,12 @@
         <v>21303373.71347484</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>80</v>
-      </c>
-      <c r="J64" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2785,7 +2959,9 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2822,7 +2998,9 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2856,12 +3034,12 @@
         <v>17451413.34757484</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>80</v>
-      </c>
-      <c r="J67" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2895,12 +3073,12 @@
         <v>17451413.34757484</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>79.90000000000001</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2934,12 +3112,12 @@
         <v>17451413.34757484</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>79.90000000000001</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2973,12 +3151,12 @@
         <v>17462060.88357484</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>79.90000000000001</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3012,12 +3190,12 @@
         <v>17466200.11357484</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>80</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3051,12 +3229,12 @@
         <v>17476100.11357484</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I72" t="n">
-        <v>80.5</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3090,12 +3268,12 @@
         <v>17497290.11737484</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>80.59999999999999</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3129,12 +3307,12 @@
         <v>17497253.98837484</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>80.7</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3168,12 +3346,12 @@
         <v>17488813.91097484</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I75" t="n">
-        <v>80.59999999999999</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3207,12 +3385,12 @@
         <v>17490896.91097484</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>80.2</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3246,12 +3424,12 @@
         <v>17501749.9735972</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
-        <v>80.3</v>
-      </c>
-      <c r="J77" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3285,12 +3463,12 @@
         <v>13644678.1619972</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>80.5</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3324,12 +3502,12 @@
         <v>12237082.2176972</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>80.40000000000001</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3363,12 +3541,12 @@
         <v>12237606.5843972</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>80.3</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3402,12 +3580,12 @@
         <v>12237328.7192972</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>80.5</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3441,12 +3619,12 @@
         <v>13987328.7192972</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>80.3</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3480,12 +3658,12 @@
         <v>13987228.7192972</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
-        <v>80.40000000000001</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3519,12 +3697,12 @@
         <v>13977064.7891972</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>80.3</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3558,12 +3736,12 @@
         <v>13977064.7891972</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>80.2</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3597,12 +3775,12 @@
         <v>13918144.2365972</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>80.2</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3636,12 +3814,12 @@
         <v>13918144.2365972</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>80</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3675,12 +3853,12 @@
         <v>13918782.8184972</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>80</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3714,12 +3892,12 @@
         <v>13943691.5855972</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>80.2</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3753,12 +3931,12 @@
         <v>10443691.5855972</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
-        <v>80.3</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3792,12 +3970,12 @@
         <v>10443691.5855972</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>80.09999999999999</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3831,12 +4009,12 @@
         <v>10446247.6855972</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>80.09999999999999</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3870,12 +4048,12 @@
         <v>10446247.6855972</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>80.3</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3909,12 +4087,12 @@
         <v>10446247.6855972</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
-      </c>
-      <c r="I94" t="n">
-        <v>80.3</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3948,12 +4126,12 @@
         <v>10446247.6855972</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>80.3</v>
-      </c>
-      <c r="J95" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3987,12 +4165,12 @@
         <v>10448425.2391972</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
-      </c>
-      <c r="I96" t="n">
-        <v>80.3</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4026,12 +4204,12 @@
         <v>10449553.1645972</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>80.40000000000001</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4065,12 +4243,12 @@
         <v>10456997.33333169</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>80.5</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4104,12 +4282,12 @@
         <v>10457802.97143169</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>80.59999999999999</v>
-      </c>
-      <c r="J99" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4143,12 +4321,12 @@
         <v>9757802.971431695</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>80.7</v>
-      </c>
-      <c r="J100" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4182,12 +4360,12 @@
         <v>12557802.97143169</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>80.59999999999999</v>
-      </c>
-      <c r="J101" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4221,12 +4399,12 @@
         <v>9402308.323431695</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" t="n">
-        <v>80.7</v>
-      </c>
-      <c r="J102" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4260,12 +4438,12 @@
         <v>9402308.323431695</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
-      </c>
-      <c r="I103" t="n">
-        <v>80.59999999999999</v>
-      </c>
-      <c r="J103" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4299,12 +4477,12 @@
         <v>9396908.323431695</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" t="n">
-        <v>80.59999999999999</v>
-      </c>
-      <c r="J104" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4338,12 +4516,12 @@
         <v>9396908.323431695</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
-      </c>
-      <c r="I105" t="n">
-        <v>80.5</v>
-      </c>
-      <c r="J105" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4377,12 +4555,12 @@
         <v>9392632.482031696</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" t="n">
-        <v>80.5</v>
-      </c>
-      <c r="J106" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4416,12 +4594,12 @@
         <v>12542632.4820317</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
-      </c>
-      <c r="I107" t="n">
-        <v>80.3</v>
-      </c>
-      <c r="J107" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4455,12 +4633,12 @@
         <v>12542632.4820317</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" t="n">
-        <v>80.40000000000001</v>
-      </c>
-      <c r="J108" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4494,12 +4672,12 @@
         <v>12542632.4820317</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
-      </c>
-      <c r="I109" t="n">
-        <v>80.40000000000001</v>
-      </c>
-      <c r="J109" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4533,12 +4711,12 @@
         <v>12435195.9340317</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
-      </c>
-      <c r="I110" t="n">
-        <v>80.40000000000001</v>
-      </c>
-      <c r="J110" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4572,12 +4750,12 @@
         <v>12435195.9340317</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
-      </c>
-      <c r="I111" t="n">
-        <v>80.2</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4611,12 +4789,12 @@
         <v>12435195.9340317</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
-      </c>
-      <c r="I112" t="n">
-        <v>80.2</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4650,12 +4828,12 @@
         <v>16285999.55803169</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
-      </c>
-      <c r="I113" t="n">
-        <v>80.2</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4689,12 +4867,12 @@
         <v>19785999.55803169</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
-      </c>
-      <c r="I114" t="n">
-        <v>80.3</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4728,12 +4906,12 @@
         <v>19770959.67433169</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
-      </c>
-      <c r="I115" t="n">
-        <v>80.40000000000001</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4767,12 +4945,12 @@
         <v>19770959.67433169</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
-      </c>
-      <c r="I116" t="n">
-        <v>80.3</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4806,12 +4984,12 @@
         <v>19770959.67433169</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
-      </c>
-      <c r="I117" t="n">
-        <v>80.3</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4845,12 +5023,12 @@
         <v>19770959.67433169</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
-      </c>
-      <c r="I118" t="n">
-        <v>80.3</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4884,12 +5062,12 @@
         <v>22920959.67433169</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
-      </c>
-      <c r="I119" t="n">
-        <v>80.3</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4923,12 +5101,12 @@
         <v>22920959.67433169</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
-      </c>
-      <c r="I120" t="n">
-        <v>80.40000000000001</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4962,12 +5140,12 @@
         <v>22910740.1664317</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
-      </c>
-      <c r="I121" t="n">
-        <v>80.40000000000001</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5001,12 +5179,12 @@
         <v>22910740.1664317</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
-      </c>
-      <c r="I122" t="n">
-        <v>80.3</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5040,12 +5218,12 @@
         <v>26434900.13903169</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
-      </c>
-      <c r="I123" t="n">
-        <v>80.3</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5079,12 +5257,12 @@
         <v>26434900.13903169</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
-      </c>
-      <c r="I124" t="n">
-        <v>80.5</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5118,12 +5296,12 @@
         <v>26434900.13903169</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
-      </c>
-      <c r="I125" t="n">
-        <v>80.5</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5157,12 +5335,12 @@
         <v>26434900.13903169</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
-      </c>
-      <c r="I126" t="n">
-        <v>80.5</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5196,12 +5374,12 @@
         <v>26434900.13903169</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
-      </c>
-      <c r="I127" t="n">
-        <v>80.5</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5235,12 +5413,12 @@
         <v>26390981.13093169</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
-      </c>
-      <c r="I128" t="n">
-        <v>80.5</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5274,12 +5452,12 @@
         <v>26390981.13093169</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
-      </c>
-      <c r="I129" t="n">
-        <v>80.40000000000001</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5316,7 +5494,9 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5350,12 +5530,12 @@
         <v>26390981.13093169</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
-      </c>
-      <c r="I131" t="n">
-        <v>80.40000000000001</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5389,12 +5569,12 @@
         <v>26390981.13093169</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
-      </c>
-      <c r="I132" t="n">
-        <v>80.40000000000001</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5428,12 +5608,12 @@
         <v>27790991.13093169</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
-      </c>
-      <c r="I133" t="n">
-        <v>80.40000000000001</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5467,12 +5647,12 @@
         <v>27784680.56863169</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
-      </c>
-      <c r="I134" t="n">
-        <v>80.5</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5506,12 +5686,12 @@
         <v>31284680.56863169</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
-      </c>
-      <c r="I135" t="n">
-        <v>80.3</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5548,7 +5728,9 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5582,12 +5764,12 @@
         <v>31284680.56863169</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
-      </c>
-      <c r="I137" t="n">
-        <v>80.40000000000001</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5621,12 +5803,12 @@
         <v>31284680.56863169</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
-      </c>
-      <c r="I138" t="n">
-        <v>80.40000000000001</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5663,7 +5845,9 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5700,7 +5884,9 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5734,12 +5920,12 @@
         <v>31225791.81336004</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
-      </c>
-      <c r="I141" t="n">
-        <v>80.3</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5773,12 +5959,12 @@
         <v>31212820.58876004</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
-      </c>
-      <c r="I142" t="n">
-        <v>80.40000000000001</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5812,12 +5998,12 @@
         <v>31212820.58876004</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
-      </c>
-      <c r="I143" t="n">
-        <v>80.3</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5851,12 +6037,12 @@
         <v>31212820.58876004</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
-      </c>
-      <c r="I144" t="n">
-        <v>80.3</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5890,12 +6076,12 @@
         <v>31212820.58876004</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
-      </c>
-      <c r="I145" t="n">
-        <v>80.3</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5929,12 +6115,12 @@
         <v>31275879.59533169</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
-      </c>
-      <c r="I146" t="n">
-        <v>80.3</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5968,12 +6154,12 @@
         <v>31275879.59533169</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
-      </c>
-      <c r="I147" t="n">
-        <v>80.7</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6007,12 +6193,12 @@
         <v>31233449.60673169</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
-      </c>
-      <c r="I148" t="n">
-        <v>80.7</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6046,12 +6232,12 @@
         <v>31233449.60673169</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
-      </c>
-      <c r="I149" t="n">
-        <v>80.59999999999999</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6085,12 +6271,12 @@
         <v>28433449.60673169</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
-      </c>
-      <c r="I150" t="n">
-        <v>80.59999999999999</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6124,12 +6310,12 @@
         <v>28433449.60673169</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
-      </c>
-      <c r="I151" t="n">
-        <v>80.40000000000001</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6163,12 +6349,12 @@
         <v>28379501.90093169</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
-      </c>
-      <c r="I152" t="n">
-        <v>80.40000000000001</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6202,12 +6388,12 @@
         <v>28379501.90093169</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
-      </c>
-      <c r="I153" t="n">
-        <v>80.3</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6241,12 +6427,12 @@
         <v>31879501.90093169</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
-      </c>
-      <c r="I154" t="n">
-        <v>80.3</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6280,12 +6466,12 @@
         <v>31882611.27753169</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
-      </c>
-      <c r="I155" t="n">
-        <v>80.40000000000001</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6319,12 +6505,12 @@
         <v>31886130.24155154</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
-      </c>
-      <c r="I156" t="n">
-        <v>80.5</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6358,12 +6544,12 @@
         <v>28275557.12885154</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
-      </c>
-      <c r="I157" t="n">
-        <v>80.59999999999999</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6397,12 +6583,12 @@
         <v>28275557.12885154</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
-      </c>
-      <c r="I158" t="n">
-        <v>80.2</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6436,12 +6622,12 @@
         <v>28275557.12885154</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
-      </c>
-      <c r="I159" t="n">
-        <v>80.2</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6475,12 +6661,12 @@
         <v>31448112.44899496</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
-      </c>
-      <c r="I160" t="n">
-        <v>80.2</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6514,12 +6700,12 @@
         <v>31448359.34289496</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
-      </c>
-      <c r="I161" t="n">
-        <v>80.40000000000001</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6553,12 +6739,12 @@
         <v>31460190.53389496</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
-      </c>
-      <c r="I162" t="n">
-        <v>80.5</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6592,12 +6778,12 @@
         <v>25510190.53389496</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
-      </c>
-      <c r="I163" t="n">
-        <v>80.59999999999999</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6631,12 +6817,12 @@
         <v>25503991.10469496</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
-      </c>
-      <c r="I164" t="n">
-        <v>80.5</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6670,12 +6856,12 @@
         <v>25548215.37259496</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
-      </c>
-      <c r="I165" t="n">
-        <v>80.3</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6709,12 +6895,12 @@
         <v>25548215.37259496</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
-      </c>
-      <c r="I166" t="n">
-        <v>80.59999999999999</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6748,12 +6934,12 @@
         <v>22398215.37259496</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
-      </c>
-      <c r="I167" t="n">
-        <v>80.59999999999999</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6787,12 +6973,12 @@
         <v>22432924.83909496</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
-      </c>
-      <c r="I168" t="n">
-        <v>80.5</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6826,12 +7012,12 @@
         <v>22432924.83909496</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
-      </c>
-      <c r="I169" t="n">
-        <v>80.59999999999999</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6865,12 +7051,12 @@
         <v>22432924.83909496</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
-      </c>
-      <c r="I170" t="n">
-        <v>80.59999999999999</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6904,12 +7090,12 @@
         <v>22432924.83909496</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
-      </c>
-      <c r="I171" t="n">
-        <v>80.59999999999999</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6943,12 +7129,12 @@
         <v>19632924.83909496</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
-      </c>
-      <c r="I172" t="n">
-        <v>80.59999999999999</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6982,12 +7168,12 @@
         <v>19632924.83909496</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
-      </c>
-      <c r="I173" t="n">
-        <v>80.5</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7021,12 +7207,12 @@
         <v>16132924.83909496</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
-      </c>
-      <c r="I174" t="n">
-        <v>80.5</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7060,12 +7246,12 @@
         <v>12966999.93939496</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
-      </c>
-      <c r="I175" t="n">
-        <v>80.40000000000001</v>
-      </c>
-      <c r="J175" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7099,12 +7285,12 @@
         <v>12966999.93939496</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
-      </c>
-      <c r="I176" t="n">
-        <v>80.2</v>
-      </c>
-      <c r="J176" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7138,12 +7324,12 @@
         <v>12966999.93939496</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
-      </c>
-      <c r="I177" t="n">
-        <v>80.2</v>
-      </c>
-      <c r="J177" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7177,12 +7363,12 @@
         <v>12572886.23219496</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
-      </c>
-      <c r="I178" t="n">
-        <v>80.2</v>
-      </c>
-      <c r="J178" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7216,12 +7402,12 @@
         <v>16772886.23219496</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
-      </c>
-      <c r="I179" t="n">
-        <v>80</v>
-      </c>
-      <c r="J179" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7255,12 +7441,12 @@
         <v>16772886.23219496</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
-      </c>
-      <c r="I180" t="n">
-        <v>80.2</v>
-      </c>
-      <c r="J180" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7294,12 +7480,12 @@
         <v>16747468.59189496</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
-      </c>
-      <c r="I181" t="n">
-        <v>80.2</v>
-      </c>
-      <c r="J181" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7333,12 +7519,12 @@
         <v>19897468.59189496</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
-      </c>
-      <c r="I182" t="n">
-        <v>80.09999999999999</v>
-      </c>
-      <c r="J182" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7372,12 +7558,12 @@
         <v>19897468.59189496</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
-      </c>
-      <c r="I183" t="n">
-        <v>80.2</v>
-      </c>
-      <c r="J183" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7411,12 +7597,12 @@
         <v>19897468.59189496</v>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
-      </c>
-      <c r="I184" t="n">
-        <v>80.2</v>
-      </c>
-      <c r="J184" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7450,12 +7636,12 @@
         <v>19897468.59189496</v>
       </c>
       <c r="H185" t="n">
-        <v>1</v>
-      </c>
-      <c r="I185" t="n">
-        <v>80.2</v>
-      </c>
-      <c r="J185" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7489,12 +7675,12 @@
         <v>19897468.59189496</v>
       </c>
       <c r="H186" t="n">
-        <v>1</v>
-      </c>
-      <c r="I186" t="n">
-        <v>80.2</v>
-      </c>
-      <c r="J186" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7528,12 +7714,12 @@
         <v>19817451.42309496</v>
       </c>
       <c r="H187" t="n">
-        <v>1</v>
-      </c>
-      <c r="I187" t="n">
-        <v>80.2</v>
-      </c>
-      <c r="J187" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7567,12 +7753,12 @@
         <v>26117451.42309496</v>
       </c>
       <c r="H188" t="n">
-        <v>1</v>
-      </c>
-      <c r="I188" t="n">
-        <v>80.09999999999999</v>
-      </c>
-      <c r="J188" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7609,7 +7795,9 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7646,7 +7834,9 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7683,7 +7873,9 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7720,7 +7912,9 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7757,7 +7951,9 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7791,12 +7987,12 @@
         <v>33840345.94819497</v>
       </c>
       <c r="H194" t="n">
-        <v>1</v>
-      </c>
-      <c r="I194" t="n">
-        <v>80.09999999999999</v>
-      </c>
-      <c r="J194" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7830,12 +8026,12 @@
         <v>33840845.94819497</v>
       </c>
       <c r="H195" t="n">
-        <v>1</v>
-      </c>
-      <c r="I195" t="n">
-        <v>80.2</v>
-      </c>
-      <c r="J195" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7869,12 +8065,12 @@
         <v>33840845.94819497</v>
       </c>
       <c r="H196" t="n">
-        <v>1</v>
-      </c>
-      <c r="I196" t="n">
-        <v>80.3</v>
-      </c>
-      <c r="J196" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7908,12 +8104,12 @@
         <v>28340845.94819497</v>
       </c>
       <c r="H197" t="n">
-        <v>1</v>
-      </c>
-      <c r="I197" t="n">
-        <v>80.3</v>
-      </c>
-      <c r="J197" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7950,7 +8146,9 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7984,12 +8182,12 @@
         <v>28343456.88599497</v>
       </c>
       <c r="H199" t="n">
-        <v>1</v>
-      </c>
-      <c r="I199" t="n">
-        <v>80.3</v>
-      </c>
-      <c r="J199" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8023,12 +8221,12 @@
         <v>27843026.82849497</v>
       </c>
       <c r="H200" t="n">
-        <v>1</v>
-      </c>
-      <c r="I200" t="n">
-        <v>80.3</v>
-      </c>
-      <c r="J200" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8062,12 +8260,12 @@
         <v>27843026.82849497</v>
       </c>
       <c r="H201" t="n">
-        <v>1</v>
-      </c>
-      <c r="I201" t="n">
-        <v>80.2</v>
-      </c>
-      <c r="J201" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8101,12 +8299,12 @@
         <v>27857337.02519497</v>
       </c>
       <c r="H202" t="n">
-        <v>1</v>
-      </c>
-      <c r="I202" t="n">
-        <v>80.2</v>
-      </c>
-      <c r="J202" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8140,12 +8338,12 @@
         <v>27857337.02519497</v>
       </c>
       <c r="H203" t="n">
-        <v>1</v>
-      </c>
-      <c r="I203" t="n">
-        <v>80.3</v>
-      </c>
-      <c r="J203" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8179,12 +8377,12 @@
         <v>27857337.02519497</v>
       </c>
       <c r="H204" t="n">
-        <v>1</v>
-      </c>
-      <c r="I204" t="n">
-        <v>80.3</v>
-      </c>
-      <c r="J204" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8221,7 +8419,9 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8255,12 +8455,12 @@
         <v>33052068.82863409</v>
       </c>
       <c r="H206" t="n">
-        <v>1</v>
-      </c>
-      <c r="I206" t="n">
-        <v>80.5</v>
-      </c>
-      <c r="J206" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8294,12 +8494,12 @@
         <v>33052068.82863409</v>
       </c>
       <c r="H207" t="n">
-        <v>1</v>
-      </c>
-      <c r="I207" t="n">
-        <v>80.5</v>
-      </c>
-      <c r="J207" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8333,12 +8533,12 @@
         <v>27411669.1359341</v>
       </c>
       <c r="H208" t="n">
-        <v>1</v>
-      </c>
-      <c r="I208" t="n">
-        <v>80.5</v>
-      </c>
-      <c r="J208" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8375,7 +8575,9 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8412,7 +8614,9 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8449,7 +8653,9 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8483,12 +8689,12 @@
         <v>32118502.95727405</v>
       </c>
       <c r="H212" t="n">
-        <v>1</v>
-      </c>
-      <c r="I212" t="n">
-        <v>80.40000000000001</v>
-      </c>
-      <c r="J212" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8522,12 +8728,12 @@
         <v>32118502.95727405</v>
       </c>
       <c r="H213" t="n">
-        <v>1</v>
-      </c>
-      <c r="I213" t="n">
-        <v>80.59999999999999</v>
-      </c>
-      <c r="J213" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8561,12 +8767,12 @@
         <v>32117794.67437404</v>
       </c>
       <c r="H214" t="n">
-        <v>1</v>
-      </c>
-      <c r="I214" t="n">
-        <v>80.59999999999999</v>
-      </c>
-      <c r="J214" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8600,12 +8806,12 @@
         <v>34467794.67437404</v>
       </c>
       <c r="H215" t="n">
-        <v>1</v>
-      </c>
-      <c r="I215" t="n">
-        <v>80.40000000000001</v>
-      </c>
-      <c r="J215" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8639,12 +8845,12 @@
         <v>34467794.67437404</v>
       </c>
       <c r="H216" t="n">
-        <v>1</v>
-      </c>
-      <c r="I216" t="n">
-        <v>80.5</v>
-      </c>
-      <c r="J216" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8678,12 +8884,12 @@
         <v>34467794.67437404</v>
       </c>
       <c r="H217" t="n">
-        <v>1</v>
-      </c>
-      <c r="I217" t="n">
-        <v>80.5</v>
-      </c>
-      <c r="J217" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8717,12 +8923,12 @@
         <v>34724546.57036612</v>
       </c>
       <c r="H218" t="n">
-        <v>1</v>
-      </c>
-      <c r="I218" t="n">
-        <v>80.5</v>
-      </c>
-      <c r="J218" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8756,12 +8962,12 @@
         <v>34708509.17116612</v>
       </c>
       <c r="H219" t="n">
-        <v>1</v>
-      </c>
-      <c r="I219" t="n">
-        <v>80.90000000000001</v>
-      </c>
-      <c r="J219" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8795,12 +9001,12 @@
         <v>34708509.17116612</v>
       </c>
       <c r="H220" t="n">
-        <v>1</v>
-      </c>
-      <c r="I220" t="n">
-        <v>80.59999999999999</v>
-      </c>
-      <c r="J220" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8834,12 +9040,12 @@
         <v>34708509.17116612</v>
       </c>
       <c r="H221" t="n">
-        <v>1</v>
-      </c>
-      <c r="I221" t="n">
-        <v>80.59999999999999</v>
-      </c>
-      <c r="J221" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8873,12 +9079,12 @@
         <v>34708509.17116612</v>
       </c>
       <c r="H222" t="n">
-        <v>1</v>
-      </c>
-      <c r="I222" t="n">
-        <v>80.59999999999999</v>
-      </c>
-      <c r="J222" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8912,12 +9118,12 @@
         <v>34708509.17116612</v>
       </c>
       <c r="H223" t="n">
-        <v>1</v>
-      </c>
-      <c r="I223" t="n">
-        <v>80.59999999999999</v>
-      </c>
-      <c r="J223" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8951,12 +9157,12 @@
         <v>39214081.92806612</v>
       </c>
       <c r="H224" t="n">
-        <v>1</v>
-      </c>
-      <c r="I224" t="n">
-        <v>80.59999999999999</v>
-      </c>
-      <c r="J224" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8990,12 +9196,12 @@
         <v>39214081.92806612</v>
       </c>
       <c r="H225" t="n">
-        <v>1</v>
-      </c>
-      <c r="I225" t="n">
-        <v>80.7</v>
-      </c>
-      <c r="J225" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9029,12 +9235,12 @@
         <v>39245688.98425126</v>
       </c>
       <c r="H226" t="n">
-        <v>1</v>
-      </c>
-      <c r="I226" t="n">
-        <v>80.7</v>
-      </c>
-      <c r="J226" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9068,12 +9274,12 @@
         <v>39210724.49095126</v>
       </c>
       <c r="H227" t="n">
-        <v>1</v>
-      </c>
-      <c r="I227" t="n">
-        <v>80.8</v>
-      </c>
-      <c r="J227" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9107,12 +9313,12 @@
         <v>39211536.22735126</v>
       </c>
       <c r="H228" t="n">
-        <v>1</v>
-      </c>
-      <c r="I228" t="n">
-        <v>80.40000000000001</v>
-      </c>
-      <c r="J228" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9146,12 +9352,12 @@
         <v>33361536.22735126</v>
       </c>
       <c r="H229" t="n">
-        <v>1</v>
-      </c>
-      <c r="I229" t="n">
-        <v>80.59999999999999</v>
-      </c>
-      <c r="J229" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9188,7 +9394,9 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9225,7 +9433,9 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9262,7 +9472,9 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9296,12 +9508,12 @@
         <v>37407421.37245127</v>
       </c>
       <c r="H233" t="n">
-        <v>1</v>
-      </c>
-      <c r="I233" t="n">
-        <v>80.59999999999999</v>
-      </c>
-      <c r="J233" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9338,7 +9550,9 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9372,12 +9586,12 @@
         <v>37407421.37245127</v>
       </c>
       <c r="H235" t="n">
-        <v>1</v>
-      </c>
-      <c r="I235" t="n">
-        <v>80.59999999999999</v>
-      </c>
-      <c r="J235" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9414,7 +9628,9 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9448,12 +9664,12 @@
         <v>37407421.37245127</v>
       </c>
       <c r="H237" t="n">
-        <v>1</v>
-      </c>
-      <c r="I237" t="n">
-        <v>80.59999999999999</v>
-      </c>
-      <c r="J237" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9487,12 +9703,12 @@
         <v>37407421.37245127</v>
       </c>
       <c r="H238" t="n">
-        <v>1</v>
-      </c>
-      <c r="I238" t="n">
-        <v>80.59999999999999</v>
-      </c>
-      <c r="J238" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9526,12 +9742,12 @@
         <v>37407421.37245127</v>
       </c>
       <c r="H239" t="n">
-        <v>1</v>
-      </c>
-      <c r="I239" t="n">
-        <v>80.59999999999999</v>
-      </c>
-      <c r="J239" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9565,12 +9781,12 @@
         <v>37408026.49445127</v>
       </c>
       <c r="H240" t="n">
-        <v>1</v>
-      </c>
-      <c r="I240" t="n">
-        <v>80.59999999999999</v>
-      </c>
-      <c r="J240" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9607,7 +9823,9 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9644,7 +9862,9 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9681,7 +9901,9 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9718,7 +9940,9 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9755,7 +9979,9 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9792,7 +10018,9 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9829,7 +10057,9 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9866,7 +10096,9 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9903,7 +10135,9 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9940,7 +10174,9 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9977,7 +10213,9 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10014,7 +10252,9 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10051,7 +10291,9 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10088,7 +10330,9 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10122,12 +10366,12 @@
         <v>37369990.61175127</v>
       </c>
       <c r="H255" t="n">
-        <v>1</v>
-      </c>
-      <c r="I255" t="n">
-        <v>80.3</v>
-      </c>
-      <c r="J255" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10164,7 +10408,9 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10201,7 +10447,9 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10238,7 +10486,9 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10272,12 +10522,12 @@
         <v>37369426.39105126</v>
       </c>
       <c r="H259" t="n">
-        <v>1</v>
-      </c>
-      <c r="I259" t="n">
-        <v>80.09999999999999</v>
-      </c>
-      <c r="J259" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10311,12 +10561,12 @@
         <v>37366632.97375126</v>
       </c>
       <c r="H260" t="n">
-        <v>1</v>
-      </c>
-      <c r="I260" t="n">
-        <v>80.40000000000001</v>
-      </c>
-      <c r="J260" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10350,12 +10600,12 @@
         <v>37366632.97375126</v>
       </c>
       <c r="H261" t="n">
-        <v>1</v>
-      </c>
-      <c r="I261" t="n">
-        <v>80.09999999999999</v>
-      </c>
-      <c r="J261" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10389,12 +10639,12 @@
         <v>37366632.97375126</v>
       </c>
       <c r="H262" t="n">
-        <v>1</v>
-      </c>
-      <c r="I262" t="n">
-        <v>80.09999999999999</v>
-      </c>
-      <c r="J262" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10428,12 +10678,12 @@
         <v>37371291.60875126</v>
       </c>
       <c r="H263" t="n">
-        <v>1</v>
-      </c>
-      <c r="I263" t="n">
-        <v>80.09999999999999</v>
-      </c>
-      <c r="J263" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10467,12 +10717,12 @@
         <v>37405088.63155126</v>
       </c>
       <c r="H264" t="n">
-        <v>1</v>
-      </c>
-      <c r="I264" t="n">
-        <v>80.3</v>
-      </c>
-      <c r="J264" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10506,12 +10756,12 @@
         <v>37405088.63155126</v>
       </c>
       <c r="H265" t="n">
-        <v>1</v>
-      </c>
-      <c r="I265" t="n">
-        <v>80.40000000000001</v>
-      </c>
-      <c r="J265" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10545,12 +10795,12 @@
         <v>37447900.59765126</v>
       </c>
       <c r="H266" t="n">
-        <v>1</v>
-      </c>
-      <c r="I266" t="n">
-        <v>80.40000000000001</v>
-      </c>
-      <c r="J266" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10584,12 +10834,12 @@
         <v>37420309.24815126</v>
       </c>
       <c r="H267" t="n">
-        <v>1</v>
-      </c>
-      <c r="I267" t="n">
-        <v>80.5</v>
-      </c>
-      <c r="J267" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10623,12 +10873,12 @@
         <v>37430629.79465126</v>
       </c>
       <c r="H268" t="n">
-        <v>1</v>
-      </c>
-      <c r="I268" t="n">
-        <v>80.40000000000001</v>
-      </c>
-      <c r="J268" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10662,12 +10912,12 @@
         <v>37430629.79465126</v>
       </c>
       <c r="H269" t="n">
-        <v>1</v>
-      </c>
-      <c r="I269" t="n">
-        <v>80.5</v>
-      </c>
-      <c r="J269" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10701,12 +10951,12 @@
         <v>37430629.79465126</v>
       </c>
       <c r="H270" t="n">
-        <v>1</v>
-      </c>
-      <c r="I270" t="n">
-        <v>80.5</v>
-      </c>
-      <c r="J270" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10740,12 +10990,12 @@
         <v>37430629.79465126</v>
       </c>
       <c r="H271" t="n">
-        <v>1</v>
-      </c>
-      <c r="I271" t="n">
-        <v>80.5</v>
-      </c>
-      <c r="J271" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10779,12 +11029,12 @@
         <v>37430629.79465126</v>
       </c>
       <c r="H272" t="n">
-        <v>1</v>
-      </c>
-      <c r="I272" t="n">
-        <v>80.5</v>
-      </c>
-      <c r="J272" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10818,12 +11068,12 @@
         <v>37430629.79465126</v>
       </c>
       <c r="H273" t="n">
-        <v>1</v>
-      </c>
-      <c r="I273" t="n">
-        <v>80.5</v>
-      </c>
-      <c r="J273" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10857,12 +11107,12 @@
         <v>37527151.17855126</v>
       </c>
       <c r="H274" t="n">
-        <v>1</v>
-      </c>
-      <c r="I274" t="n">
-        <v>80.5</v>
-      </c>
-      <c r="J274" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10896,12 +11146,12 @@
         <v>37538471.99465126</v>
       </c>
       <c r="H275" t="n">
-        <v>1</v>
-      </c>
-      <c r="I275" t="n">
-        <v>80.59999999999999</v>
-      </c>
-      <c r="J275" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10935,12 +11185,12 @@
         <v>37538471.99465126</v>
       </c>
       <c r="H276" t="n">
-        <v>1</v>
-      </c>
-      <c r="I276" t="n">
-        <v>80.7</v>
-      </c>
-      <c r="J276" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10974,12 +11224,12 @@
         <v>37571972.45005126</v>
       </c>
       <c r="H277" t="n">
-        <v>1</v>
-      </c>
-      <c r="I277" t="n">
-        <v>80.7</v>
-      </c>
-      <c r="J277" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11013,12 +11263,12 @@
         <v>37571972.45005126</v>
       </c>
       <c r="H278" t="n">
-        <v>1</v>
-      </c>
-      <c r="I278" t="n">
-        <v>80.8</v>
-      </c>
-      <c r="J278" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11052,12 +11302,12 @@
         <v>37571972.45005126</v>
       </c>
       <c r="H279" t="n">
-        <v>1</v>
-      </c>
-      <c r="I279" t="n">
-        <v>80.8</v>
-      </c>
-      <c r="J279" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11091,12 +11341,12 @@
         <v>37571955.75865126</v>
       </c>
       <c r="H280" t="n">
-        <v>1</v>
-      </c>
-      <c r="I280" t="n">
-        <v>80.8</v>
-      </c>
-      <c r="J280" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11130,12 +11380,12 @@
         <v>37520904.96675126</v>
       </c>
       <c r="H281" t="n">
-        <v>1</v>
-      </c>
-      <c r="I281" t="n">
-        <v>80.7</v>
-      </c>
-      <c r="J281" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11169,12 +11419,12 @@
         <v>37523647.96675126</v>
       </c>
       <c r="H282" t="n">
-        <v>1</v>
-      </c>
-      <c r="I282" t="n">
-        <v>80.3</v>
-      </c>
-      <c r="J282" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11208,12 +11458,12 @@
         <v>37541855.81765126</v>
       </c>
       <c r="H283" t="n">
-        <v>1</v>
-      </c>
-      <c r="I283" t="n">
-        <v>80.5</v>
-      </c>
-      <c r="J283" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11247,12 +11497,12 @@
         <v>37541855.81765126</v>
       </c>
       <c r="H284" t="n">
-        <v>1</v>
-      </c>
-      <c r="I284" t="n">
-        <v>80.90000000000001</v>
-      </c>
-      <c r="J284" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11286,12 +11536,12 @@
         <v>37541855.81765126</v>
       </c>
       <c r="H285" t="n">
-        <v>1</v>
-      </c>
-      <c r="I285" t="n">
-        <v>80.90000000000001</v>
-      </c>
-      <c r="J285" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K285" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11325,12 +11575,12 @@
         <v>37543355.81765126</v>
       </c>
       <c r="H286" t="n">
-        <v>1</v>
-      </c>
-      <c r="I286" t="n">
-        <v>80.90000000000001</v>
-      </c>
-      <c r="J286" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K286" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11364,12 +11614,12 @@
         <v>37543355.81765126</v>
       </c>
       <c r="H287" t="n">
-        <v>1</v>
-      </c>
-      <c r="I287" t="n">
-        <v>81</v>
-      </c>
-      <c r="J287" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11403,12 +11653,12 @@
         <v>37543355.81765126</v>
       </c>
       <c r="H288" t="n">
-        <v>1</v>
-      </c>
-      <c r="I288" t="n">
-        <v>81</v>
-      </c>
-      <c r="J288" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K288" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11442,12 +11692,12 @@
         <v>37543294.83575126</v>
       </c>
       <c r="H289" t="n">
-        <v>1</v>
-      </c>
-      <c r="I289" t="n">
-        <v>81</v>
-      </c>
-      <c r="J289" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K289" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11481,12 +11731,12 @@
         <v>37545114.13575125</v>
       </c>
       <c r="H290" t="n">
-        <v>1</v>
-      </c>
-      <c r="I290" t="n">
-        <v>80.90000000000001</v>
-      </c>
-      <c r="J290" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K290" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11520,12 +11770,12 @@
         <v>37545114.13575125</v>
       </c>
       <c r="H291" t="n">
-        <v>1</v>
-      </c>
-      <c r="I291" t="n">
-        <v>81</v>
-      </c>
-      <c r="J291" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11559,12 +11809,12 @@
         <v>37532459.10415126</v>
       </c>
       <c r="H292" t="n">
-        <v>1</v>
-      </c>
-      <c r="I292" t="n">
-        <v>81</v>
-      </c>
-      <c r="J292" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11598,12 +11848,12 @@
         <v>37532459.10415126</v>
       </c>
       <c r="H293" t="n">
-        <v>1</v>
-      </c>
-      <c r="I293" t="n">
-        <v>80.90000000000001</v>
-      </c>
-      <c r="J293" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11637,12 +11887,12 @@
         <v>37532459.10415126</v>
       </c>
       <c r="H294" t="n">
-        <v>1</v>
-      </c>
-      <c r="I294" t="n">
-        <v>80.90000000000001</v>
-      </c>
-      <c r="J294" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11676,12 +11926,12 @@
         <v>37532459.10415126</v>
       </c>
       <c r="H295" t="n">
-        <v>1</v>
-      </c>
-      <c r="I295" t="n">
-        <v>80.90000000000001</v>
-      </c>
-      <c r="J295" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11715,12 +11965,12 @@
         <v>37530248.15855125</v>
       </c>
       <c r="H296" t="n">
-        <v>1</v>
-      </c>
-      <c r="I296" t="n">
-        <v>80.90000000000001</v>
-      </c>
-      <c r="J296" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11754,12 +12004,12 @@
         <v>37530248.15865126</v>
       </c>
       <c r="H297" t="n">
-        <v>1</v>
-      </c>
-      <c r="I297" t="n">
-        <v>80.8</v>
-      </c>
-      <c r="J297" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11793,12 +12043,12 @@
         <v>38393348.77375126</v>
       </c>
       <c r="H298" t="n">
-        <v>1</v>
-      </c>
-      <c r="I298" t="n">
-        <v>80.90000000000001</v>
-      </c>
-      <c r="J298" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11832,12 +12082,12 @@
         <v>38393348.77375126</v>
       </c>
       <c r="H299" t="n">
-        <v>1</v>
-      </c>
-      <c r="I299" t="n">
-        <v>81.09999999999999</v>
-      </c>
-      <c r="J299" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K299" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11871,12 +12121,12 @@
         <v>31892987.15195126</v>
       </c>
       <c r="H300" t="n">
-        <v>1</v>
-      </c>
-      <c r="I300" t="n">
-        <v>81.09999999999999</v>
-      </c>
-      <c r="J300" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K300" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11910,12 +12160,12 @@
         <v>31892987.15195126</v>
       </c>
       <c r="H301" t="n">
-        <v>1</v>
-      </c>
-      <c r="I301" t="n">
-        <v>81</v>
-      </c>
-      <c r="J301" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11952,7 +12202,9 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K302" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11989,7 +12241,9 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12026,7 +12280,9 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K304" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12063,7 +12319,9 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K305" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12097,12 +12355,12 @@
         <v>31894402.21525126</v>
       </c>
       <c r="H306" t="n">
-        <v>1</v>
-      </c>
-      <c r="I306" t="n">
-        <v>81</v>
-      </c>
-      <c r="J306" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K306" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12136,12 +12394,12 @@
         <v>31894384.66875126</v>
       </c>
       <c r="H307" t="n">
-        <v>1</v>
-      </c>
-      <c r="I307" t="n">
-        <v>81.09999999999999</v>
-      </c>
-      <c r="J307" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K307" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12175,12 +12433,12 @@
         <v>31895974.84515126</v>
       </c>
       <c r="H308" t="n">
-        <v>1</v>
-      </c>
-      <c r="I308" t="n">
-        <v>80.90000000000001</v>
-      </c>
-      <c r="J308" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K308" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12214,12 +12472,12 @@
         <v>31895691.72555126</v>
       </c>
       <c r="H309" t="n">
-        <v>1</v>
-      </c>
-      <c r="I309" t="n">
-        <v>81</v>
-      </c>
-      <c r="J309" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K309" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12253,12 +12511,12 @@
         <v>31895691.72555126</v>
       </c>
       <c r="H310" t="n">
-        <v>1</v>
-      </c>
-      <c r="I310" t="n">
-        <v>80.90000000000001</v>
-      </c>
-      <c r="J310" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K310" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12292,12 +12550,12 @@
         <v>31895691.72555126</v>
       </c>
       <c r="H311" t="n">
-        <v>1</v>
-      </c>
-      <c r="I311" t="n">
-        <v>80.90000000000001</v>
-      </c>
-      <c r="J311" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K311" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12331,12 +12589,12 @@
         <v>31895691.72555126</v>
       </c>
       <c r="H312" t="n">
-        <v>1</v>
-      </c>
-      <c r="I312" t="n">
-        <v>80.90000000000001</v>
-      </c>
-      <c r="J312" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K312" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12370,12 +12628,12 @@
         <v>31894277.47035126</v>
       </c>
       <c r="H313" t="n">
-        <v>1</v>
-      </c>
-      <c r="I313" t="n">
-        <v>80.90000000000001</v>
-      </c>
-      <c r="J313" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K313" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12409,12 +12667,12 @@
         <v>31913281.75715126</v>
       </c>
       <c r="H314" t="n">
-        <v>1</v>
-      </c>
-      <c r="I314" t="n">
-        <v>80.8</v>
-      </c>
-      <c r="J314" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K314" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12448,12 +12706,12 @@
         <v>31911106.57585126</v>
       </c>
       <c r="H315" t="n">
-        <v>1</v>
-      </c>
-      <c r="I315" t="n">
-        <v>80.90000000000001</v>
-      </c>
-      <c r="J315" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K315" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12487,12 +12745,12 @@
         <v>31916534.96995126</v>
       </c>
       <c r="H316" t="n">
-        <v>1</v>
-      </c>
-      <c r="I316" t="n">
-        <v>80.8</v>
-      </c>
-      <c r="J316" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K316" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12529,7 +12787,9 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K317" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12563,12 +12823,12 @@
         <v>31916550.41995126</v>
       </c>
       <c r="H318" t="n">
-        <v>1</v>
-      </c>
-      <c r="I318" t="n">
-        <v>80.90000000000001</v>
-      </c>
-      <c r="J318" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K318" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12605,7 +12865,9 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K319" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12642,7 +12904,9 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K320" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12679,7 +12943,9 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K321" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12716,7 +12982,9 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K322" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12753,7 +13021,9 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K323" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12787,12 +13057,12 @@
         <v>31898820.10915126</v>
       </c>
       <c r="H324" t="n">
-        <v>1</v>
-      </c>
-      <c r="I324" t="n">
-        <v>80.90000000000001</v>
-      </c>
-      <c r="J324" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K324" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12829,7 +13099,9 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K325" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12863,12 +13135,12 @@
         <v>31902723.18655125</v>
       </c>
       <c r="H326" t="n">
-        <v>1</v>
-      </c>
-      <c r="I326" t="n">
-        <v>80.90000000000001</v>
-      </c>
-      <c r="J326" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K326" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12902,12 +13174,12 @@
         <v>31902723.18655125</v>
       </c>
       <c r="H327" t="n">
-        <v>1</v>
-      </c>
-      <c r="I327" t="n">
-        <v>81</v>
-      </c>
-      <c r="J327" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K327" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12941,12 +13213,12 @@
         <v>31936063.13869036</v>
       </c>
       <c r="H328" t="n">
-        <v>1</v>
-      </c>
-      <c r="I328" t="n">
-        <v>81</v>
-      </c>
-      <c r="J328" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K328" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12980,12 +13252,12 @@
         <v>31933848.13869036</v>
       </c>
       <c r="H329" t="n">
-        <v>1</v>
-      </c>
-      <c r="I329" t="n">
-        <v>81.3</v>
-      </c>
-      <c r="J329" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K329" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13019,12 +13291,12 @@
         <v>31933271.13869036</v>
       </c>
       <c r="H330" t="n">
-        <v>1</v>
-      </c>
-      <c r="I330" t="n">
-        <v>81.09999999999999</v>
-      </c>
-      <c r="J330" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I330" t="inlineStr"/>
+      <c r="J330" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K330" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13058,12 +13330,12 @@
         <v>31933271.13869036</v>
       </c>
       <c r="H331" t="n">
-        <v>1</v>
-      </c>
-      <c r="I331" t="n">
-        <v>80.8</v>
-      </c>
-      <c r="J331" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I331" t="inlineStr"/>
+      <c r="J331" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K331" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13097,12 +13369,12 @@
         <v>31908424.64359036</v>
       </c>
       <c r="H332" t="n">
-        <v>1</v>
-      </c>
-      <c r="I332" t="n">
-        <v>80.8</v>
-      </c>
-      <c r="J332" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K332" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13136,12 +13408,12 @@
         <v>31909042.70289037</v>
       </c>
       <c r="H333" t="n">
-        <v>1</v>
-      </c>
-      <c r="I333" t="n">
-        <v>80.7</v>
-      </c>
-      <c r="J333" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K333" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13175,12 +13447,12 @@
         <v>31911268.52609036</v>
       </c>
       <c r="H334" t="n">
-        <v>1</v>
-      </c>
-      <c r="I334" t="n">
-        <v>80.90000000000001</v>
-      </c>
-      <c r="J334" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K334" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13214,12 +13486,12 @@
         <v>31908457.73049036</v>
       </c>
       <c r="H335" t="n">
-        <v>1</v>
-      </c>
-      <c r="I335" t="n">
-        <v>81</v>
-      </c>
-      <c r="J335" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I335" t="inlineStr"/>
+      <c r="J335" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K335" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13253,12 +13525,12 @@
         <v>31908457.73049036</v>
       </c>
       <c r="H336" t="n">
-        <v>1</v>
-      </c>
-      <c r="I336" t="n">
-        <v>80.8</v>
-      </c>
-      <c r="J336" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I336" t="inlineStr"/>
+      <c r="J336" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K336" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13292,12 +13564,12 @@
         <v>31908457.73049036</v>
       </c>
       <c r="H337" t="n">
-        <v>1</v>
-      </c>
-      <c r="I337" t="n">
-        <v>80.8</v>
-      </c>
-      <c r="J337" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I337" t="inlineStr"/>
+      <c r="J337" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K337" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13331,12 +13603,12 @@
         <v>31933835.91139036</v>
       </c>
       <c r="H338" t="n">
-        <v>1</v>
-      </c>
-      <c r="I338" t="n">
-        <v>80.8</v>
-      </c>
-      <c r="J338" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I338" t="inlineStr"/>
+      <c r="J338" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K338" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13370,12 +13642,12 @@
         <v>31955542.76469037</v>
       </c>
       <c r="H339" t="n">
-        <v>1</v>
-      </c>
-      <c r="I339" t="n">
-        <v>81</v>
-      </c>
-      <c r="J339" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I339" t="inlineStr"/>
+      <c r="J339" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K339" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13409,12 +13681,12 @@
         <v>31955542.76469037</v>
       </c>
       <c r="H340" t="n">
-        <v>1</v>
-      </c>
-      <c r="I340" t="n">
-        <v>81.09999999999999</v>
-      </c>
-      <c r="J340" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I340" t="inlineStr"/>
+      <c r="J340" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K340" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13451,7 +13723,9 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
+      <c r="J341" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K341" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13488,7 +13762,9 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
+      <c r="J342" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K342" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13525,7 +13801,9 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
+      <c r="J343" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K343" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13562,7 +13840,9 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
+      <c r="J344" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K344" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13599,7 +13879,9 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
+      <c r="J345" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K345" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13633,12 +13915,12 @@
         <v>31989770.28859037</v>
       </c>
       <c r="H346" t="n">
-        <v>1</v>
-      </c>
-      <c r="I346" t="n">
-        <v>81.5</v>
-      </c>
-      <c r="J346" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I346" t="inlineStr"/>
+      <c r="J346" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K346" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13675,7 +13957,9 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
+      <c r="J347" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K347" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13712,7 +13996,9 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
+      <c r="J348" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K348" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13749,7 +14035,9 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
+      <c r="J349" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K349" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13786,7 +14074,9 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
+      <c r="J350" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K350" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13823,7 +14113,9 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="inlineStr"/>
+      <c r="J351" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K351" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13860,7 +14152,9 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
+      <c r="J352" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K352" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13897,7 +14191,9 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
+      <c r="J353" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K353" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13934,7 +14230,9 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
+      <c r="J354" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K354" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13971,7 +14269,9 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
+      <c r="J355" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K355" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14008,7 +14308,9 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
+      <c r="J356" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K356" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14045,7 +14347,9 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
+      <c r="J357" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K357" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14082,7 +14386,9 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
+      <c r="J358" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K358" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14119,7 +14425,9 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
+      <c r="J359" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K359" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14156,7 +14464,9 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
+      <c r="J360" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K360" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14193,7 +14503,9 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
+      <c r="J361" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K361" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14230,7 +14542,9 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
+      <c r="J362" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K362" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14267,7 +14581,9 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="inlineStr"/>
+      <c r="J363" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K363" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14304,7 +14620,9 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
+      <c r="J364" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K364" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14341,7 +14659,9 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
+      <c r="J365" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K365" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14378,7 +14698,9 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
+      <c r="J366" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K366" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14415,7 +14737,9 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
+      <c r="J367" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K367" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14452,7 +14776,9 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
+      <c r="J368" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K368" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14489,7 +14815,9 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
+      <c r="J369" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K369" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14526,7 +14854,9 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
+      <c r="J370" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K370" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14563,7 +14893,9 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
+      <c r="J371" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K371" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14600,7 +14932,9 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
+      <c r="J372" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K372" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14637,7 +14971,9 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
+      <c r="J373" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K373" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14674,7 +15010,9 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
+      <c r="J374" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K374" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14711,7 +15049,9 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
+      <c r="J375" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K375" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14748,7 +15088,9 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
+      <c r="J376" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K376" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14785,7 +15127,9 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="inlineStr"/>
+      <c r="J377" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K377" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14822,7 +15166,9 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr"/>
+      <c r="J378" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K378" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14859,7 +15205,9 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="inlineStr"/>
+      <c r="J379" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K379" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14896,7 +15244,9 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="inlineStr"/>
+      <c r="J380" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K380" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14933,7 +15283,9 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="inlineStr"/>
+      <c r="J381" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K381" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14970,7 +15322,9 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="inlineStr"/>
+      <c r="J382" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K382" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15007,7 +15361,9 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="inlineStr"/>
+      <c r="J383" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K383" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15044,7 +15400,9 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
+      <c r="J384" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K384" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15081,7 +15439,9 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="inlineStr"/>
+      <c r="J385" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K385" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15118,7 +15478,9 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="inlineStr"/>
+      <c r="J386" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K386" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15155,7 +15517,9 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="inlineStr"/>
+      <c r="J387" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K387" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15192,7 +15556,9 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="inlineStr"/>
+      <c r="J388" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K388" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15229,7 +15595,9 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="inlineStr"/>
+      <c r="J389" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K389" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15266,7 +15634,9 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="inlineStr"/>
+      <c r="J390" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K390" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15303,7 +15673,9 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="inlineStr"/>
+      <c r="J391" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K391" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15340,7 +15712,9 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="inlineStr"/>
+      <c r="J392" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K392" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15377,7 +15751,9 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="inlineStr"/>
+      <c r="J393" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K393" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15414,7 +15790,9 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="inlineStr"/>
+      <c r="J394" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K394" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15451,7 +15829,9 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="inlineStr"/>
+      <c r="J395" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K395" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15488,7 +15868,9 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="inlineStr"/>
+      <c r="J396" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K396" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15525,7 +15907,9 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="inlineStr"/>
+      <c r="J397" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K397" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15562,7 +15946,9 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="inlineStr"/>
+      <c r="J398" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K398" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15599,7 +15985,9 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="inlineStr"/>
+      <c r="J399" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K399" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15636,7 +16024,9 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="inlineStr"/>
+      <c r="J400" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K400" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15673,7 +16063,9 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="inlineStr"/>
+      <c r="J401" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K401" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15710,7 +16102,9 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="inlineStr"/>
+      <c r="J402" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K402" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15747,7 +16141,9 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="inlineStr"/>
+      <c r="J403" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K403" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15784,7 +16180,9 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="inlineStr"/>
+      <c r="J404" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K404" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15821,7 +16219,9 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="inlineStr"/>
+      <c r="J405" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K405" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15858,7 +16258,9 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="inlineStr"/>
+      <c r="J406" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K406" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15895,7 +16297,9 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="inlineStr"/>
+      <c r="J407" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K407" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15932,7 +16336,9 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="inlineStr"/>
+      <c r="J408" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K408" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15969,7 +16375,9 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="inlineStr"/>
+      <c r="J409" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K409" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16006,7 +16414,9 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="inlineStr"/>
+      <c r="J410" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K410" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16043,7 +16453,9 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="inlineStr"/>
+      <c r="J411" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K411" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16080,7 +16492,9 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="inlineStr"/>
+      <c r="J412" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K412" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16117,7 +16531,9 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="inlineStr"/>
+      <c r="J413" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K413" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16154,7 +16570,9 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="inlineStr"/>
+      <c r="J414" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K414" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16191,7 +16609,9 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="inlineStr"/>
+      <c r="J415" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K415" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16228,7 +16648,9 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="inlineStr"/>
+      <c r="J416" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K416" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16265,7 +16687,9 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="inlineStr"/>
+      <c r="J417" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K417" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16302,7 +16726,9 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="inlineStr"/>
+      <c r="J418" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K418" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16339,7 +16765,9 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="inlineStr"/>
+      <c r="J419" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K419" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16376,7 +16804,9 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="inlineStr"/>
+      <c r="J420" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K420" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16413,7 +16843,9 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="inlineStr"/>
+      <c r="J421" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K421" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16450,7 +16882,9 @@
         <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="inlineStr"/>
+      <c r="J422" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K422" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16487,7 +16921,9 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="inlineStr"/>
+      <c r="J423" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K423" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16524,7 +16960,9 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="inlineStr"/>
+      <c r="J424" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K424" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16561,7 +16999,9 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="inlineStr"/>
+      <c r="J425" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K425" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16598,7 +17038,9 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="inlineStr"/>
+      <c r="J426" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K426" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16635,7 +17077,9 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="inlineStr"/>
+      <c r="J427" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K427" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16672,7 +17116,9 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="inlineStr"/>
+      <c r="J428" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K428" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16709,7 +17155,9 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="inlineStr"/>
+      <c r="J429" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K429" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16746,7 +17194,9 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="inlineStr"/>
+      <c r="J430" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K430" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16783,7 +17233,9 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="inlineStr"/>
+      <c r="J431" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K431" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16820,7 +17272,9 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="inlineStr"/>
+      <c r="J432" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K432" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16857,7 +17311,9 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="inlineStr"/>
+      <c r="J433" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K433" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16894,7 +17350,9 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="inlineStr"/>
+      <c r="J434" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K434" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16931,7 +17389,9 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="inlineStr"/>
+      <c r="J435" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K435" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16968,7 +17428,9 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="inlineStr"/>
+      <c r="J436" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K436" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17005,7 +17467,9 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="inlineStr"/>
+      <c r="J437" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K437" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17042,7 +17506,9 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="inlineStr"/>
+      <c r="J438" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K438" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17079,7 +17545,9 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="inlineStr"/>
+      <c r="J439" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K439" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17113,19 +17581,23 @@
         <v>34763371.50611196</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="inlineStr"/>
+      <c r="J440" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="K440" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L440" t="n">
-        <v>1</v>
-      </c>
-      <c r="M440" t="inlineStr"/>
+        <v>1.152697121401752</v>
+      </c>
+      <c r="M440" t="n">
+        <v>1.003764115432873</v>
+      </c>
     </row>
     <row r="441">
       <c r="A441" s="1" t="n">
@@ -17150,15 +17622,11 @@
         <v>34641986.71291196</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K441" t="inlineStr"/>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -17187,15 +17655,11 @@
         <v>34980998.58131196</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K442" t="inlineStr"/>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -17224,15 +17688,11 @@
         <v>36225737.05011196</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K443" t="inlineStr"/>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -17261,15 +17721,11 @@
         <v>37063726.03241196</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K444" t="inlineStr"/>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -17298,15 +17754,11 @@
         <v>38008812.48191571</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K445" t="inlineStr"/>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -17335,15 +17787,11 @@
         <v>39118870.00913366</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K446" t="inlineStr"/>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -17372,15 +17820,11 @@
         <v>39871858.47823366</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K447" t="inlineStr"/>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -17409,15 +17853,11 @@
         <v>41257734.45353419</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K448" t="inlineStr"/>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -17446,15 +17886,11 @@
         <v>40380031.06268939</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K449" t="inlineStr"/>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -17483,15 +17919,11 @@
         <v>41017771.00807668</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K450" t="inlineStr"/>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -17524,11 +17956,7 @@
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K451" t="inlineStr"/>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -17561,11 +17989,7 @@
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K452" t="inlineStr"/>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -17598,11 +18022,7 @@
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K453" t="inlineStr"/>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -17635,11 +18055,7 @@
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K454" t="inlineStr"/>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -17672,11 +18088,7 @@
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K455" t="inlineStr"/>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -17709,11 +18121,7 @@
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K456" t="inlineStr"/>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -17746,11 +18154,7 @@
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K457" t="inlineStr"/>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -17779,15 +18183,11 @@
         <v>40971379.1500964</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K458" t="inlineStr"/>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -17816,16 +18216,14 @@
         <v>41432203.67192292</v>
       </c>
       <c r="H459" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L459" t="inlineStr"/>
+      <c r="K459" t="inlineStr"/>
+      <c r="L459" t="n">
+        <v>1</v>
+      </c>
       <c r="M459" t="inlineStr"/>
     </row>
     <row r="460">
@@ -17851,7 +18249,7 @@
         <v>41920382.5902281</v>
       </c>
       <c r="H460" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -17884,7 +18282,7 @@
         <v>42535253.43902811</v>
       </c>
       <c r="H461" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -17917,7 +18315,7 @@
         <v>41962241.88324428</v>
       </c>
       <c r="H462" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -17950,7 +18348,7 @@
         <v>42175579.17571039</v>
       </c>
       <c r="H463" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -17983,7 +18381,7 @@
         <v>42175579.17571039</v>
       </c>
       <c r="H464" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -18016,7 +18414,7 @@
         <v>41919462.46329443</v>
       </c>
       <c r="H465" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -18049,7 +18447,7 @@
         <v>41725450.99229443</v>
       </c>
       <c r="H466" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -18082,7 +18480,7 @@
         <v>41550802.54735037</v>
       </c>
       <c r="H467" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -18115,7 +18513,7 @@
         <v>41865660.20115037</v>
       </c>
       <c r="H468" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -18148,7 +18546,7 @@
         <v>42095791.93415038</v>
       </c>
       <c r="H469" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -18181,7 +18579,7 @@
         <v>41911428.27145038</v>
       </c>
       <c r="H470" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -18214,7 +18612,7 @@
         <v>42134156.44265038</v>
       </c>
       <c r="H471" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -18247,7 +18645,7 @@
         <v>41923866.02525038</v>
       </c>
       <c r="H472" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -18280,7 +18678,7 @@
         <v>41639631.86675037</v>
       </c>
       <c r="H473" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -18313,7 +18711,7 @@
         <v>41862663.75995038</v>
       </c>
       <c r="H474" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -18346,7 +18744,7 @@
         <v>41518399.93505038</v>
       </c>
       <c r="H475" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -18379,7 +18777,7 @@
         <v>41518399.93505038</v>
       </c>
       <c r="H476" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -18808,7 +19206,7 @@
         <v>42890801.77071565</v>
       </c>
       <c r="H489" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -18841,7 +19239,7 @@
         <v>44412464.04257372</v>
       </c>
       <c r="H490" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -19039,7 +19437,7 @@
         <v>43615973.29257812</v>
       </c>
       <c r="H496" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -19072,7 +19470,7 @@
         <v>43482106.18997812</v>
       </c>
       <c r="H497" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -19105,7 +19503,7 @@
         <v>43673379.61047813</v>
       </c>
       <c r="H498" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -19138,7 +19536,7 @@
         <v>43442349.47201025</v>
       </c>
       <c r="H499" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -19171,7 +19569,7 @@
         <v>43283812.42341024</v>
       </c>
       <c r="H500" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -19204,7 +19602,7 @@
         <v>43212974.08521024</v>
       </c>
       <c r="H501" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -19237,7 +19635,7 @@
         <v>43140945.79591024</v>
       </c>
       <c r="H502" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -19270,7 +19668,7 @@
         <v>43231151.83921024</v>
       </c>
       <c r="H503" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -19303,7 +19701,7 @@
         <v>43667176.21271024</v>
       </c>
       <c r="H504" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -19336,7 +19734,7 @@
         <v>44309141.85181024</v>
       </c>
       <c r="H505" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -19369,7 +19767,7 @@
         <v>44747104.97148109</v>
       </c>
       <c r="H506" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -19402,7 +19800,7 @@
         <v>44988013.76792305</v>
       </c>
       <c r="H507" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -19435,7 +19833,7 @@
         <v>44631385.72251782</v>
       </c>
       <c r="H508" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -19468,7 +19866,7 @@
         <v>44977580.36780833</v>
       </c>
       <c r="H509" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -19501,7 +19899,7 @@
         <v>45091114.78320833</v>
       </c>
       <c r="H510" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -19534,7 +19932,7 @@
         <v>44871144.58970834</v>
       </c>
       <c r="H511" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -19567,7 +19965,7 @@
         <v>44944504.35342021</v>
       </c>
       <c r="H512" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -19600,7 +19998,7 @@
         <v>44944504.35342021</v>
       </c>
       <c r="H513" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -19633,7 +20031,7 @@
         <v>45131176.9218156</v>
       </c>
       <c r="H514" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -19666,7 +20064,7 @@
         <v>45302542.07661559</v>
       </c>
       <c r="H515" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -19699,7 +20097,7 @@
         <v>46329789.14611559</v>
       </c>
       <c r="H516" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -19732,7 +20130,7 @@
         <v>46329789.14611559</v>
       </c>
       <c r="H517" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -19765,7 +20163,7 @@
         <v>46272396.24508426</v>
       </c>
       <c r="H518" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -19798,7 +20196,7 @@
         <v>46054191.20679409</v>
       </c>
       <c r="H519" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -19831,7 +20229,7 @@
         <v>45932655.92539409</v>
       </c>
       <c r="H520" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -19864,7 +20262,7 @@
         <v>45957339.63278365</v>
       </c>
       <c r="H521" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -19897,7 +20295,7 @@
         <v>45876735.88088365</v>
       </c>
       <c r="H522" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -20095,7 +20493,7 @@
         <v>46339902.73018463</v>
       </c>
       <c r="H528" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -20128,7 +20526,7 @@
         <v>46586413.76482776</v>
       </c>
       <c r="H529" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -20161,7 +20559,7 @@
         <v>46197972.28662775</v>
       </c>
       <c r="H530" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -20194,7 +20592,7 @@
         <v>46197972.28662775</v>
       </c>
       <c r="H531" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -20227,7 +20625,7 @@
         <v>46159630.50032775</v>
       </c>
       <c r="H532" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -20260,7 +20658,7 @@
         <v>46290958.97212775</v>
       </c>
       <c r="H533" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -20293,7 +20691,7 @@
         <v>45965024.84032775</v>
       </c>
       <c r="H534" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -20359,7 +20757,7 @@
         <v>46007916.98622774</v>
       </c>
       <c r="H536" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -20392,7 +20790,7 @@
         <v>46007916.98622774</v>
       </c>
       <c r="H537" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -20425,7 +20823,7 @@
         <v>46104131.80072774</v>
       </c>
       <c r="H538" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -20458,7 +20856,7 @@
         <v>45827045.28442774</v>
       </c>
       <c r="H539" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -20491,7 +20889,7 @@
         <v>45410599.46972774</v>
       </c>
       <c r="H540" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -20524,7 +20922,7 @@
         <v>45378709.86275104</v>
       </c>
       <c r="H541" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -20557,7 +20955,7 @@
         <v>45559877.93275104</v>
       </c>
       <c r="H542" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -20590,7 +20988,7 @@
         <v>45650288.79995104</v>
       </c>
       <c r="H543" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -20623,7 +21021,7 @@
         <v>45518467.02165104</v>
       </c>
       <c r="H544" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -20656,7 +21054,7 @@
         <v>45383183.88445104</v>
       </c>
       <c r="H545" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -20689,7 +21087,7 @@
         <v>45067167.87375104</v>
       </c>
       <c r="H546" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -20722,7 +21120,7 @@
         <v>45299597.13375103</v>
       </c>
       <c r="H547" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -20755,7 +21153,7 @@
         <v>45299597.13375103</v>
       </c>
       <c r="H548" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -20788,7 +21186,7 @@
         <v>45103373.18925104</v>
       </c>
       <c r="H549" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -20821,7 +21219,7 @@
         <v>45180709.20355104</v>
       </c>
       <c r="H550" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -21580,7 +21978,7 @@
         <v>44605815.60148846</v>
       </c>
       <c r="H573" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
@@ -21613,7 +22011,7 @@
         <v>44530577.17358846</v>
       </c>
       <c r="H574" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
@@ -21646,7 +22044,7 @@
         <v>44079615.24898846</v>
       </c>
       <c r="H575" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
@@ -21679,7 +22077,7 @@
         <v>43910320.17668846</v>
       </c>
       <c r="H576" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
@@ -21712,7 +22110,7 @@
         <v>43910320.17668846</v>
       </c>
       <c r="H577" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
@@ -21745,7 +22143,7 @@
         <v>43825033.15478846</v>
       </c>
       <c r="H578" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
@@ -21778,7 +22176,7 @@
         <v>43669500.21334547</v>
       </c>
       <c r="H579" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
@@ -21811,7 +22209,7 @@
         <v>43344300.04895872</v>
       </c>
       <c r="H580" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
@@ -21844,7 +22242,7 @@
         <v>43036244.34587881</v>
       </c>
       <c r="H581" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
@@ -21877,7 +22275,7 @@
         <v>43099519.11301213</v>
       </c>
       <c r="H582" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
@@ -21910,7 +22308,7 @@
         <v>42418420.81411213</v>
       </c>
       <c r="H583" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
@@ -21943,7 +22341,7 @@
         <v>42418420.81411213</v>
       </c>
       <c r="H584" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
@@ -21976,7 +22374,7 @@
         <v>42491911.08884934</v>
       </c>
       <c r="H585" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
@@ -22009,7 +22407,7 @@
         <v>42491911.08884934</v>
       </c>
       <c r="H586" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
@@ -22042,7 +22440,7 @@
         <v>42555051.29364665</v>
       </c>
       <c r="H587" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
@@ -22075,7 +22473,7 @@
         <v>42603917.69424665</v>
       </c>
       <c r="H588" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
@@ -22108,7 +22506,7 @@
         <v>42642279.95314665</v>
       </c>
       <c r="H589" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
@@ -22141,7 +22539,7 @@
         <v>42427322.02413992</v>
       </c>
       <c r="H590" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
@@ -22174,7 +22572,7 @@
         <v>42436542.96913992</v>
       </c>
       <c r="H591" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
@@ -22207,7 +22605,7 @@
         <v>42381074.59203992</v>
       </c>
       <c r="H592" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
@@ -22240,7 +22638,7 @@
         <v>41985068.68633992</v>
       </c>
       <c r="H593" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
@@ -22273,7 +22671,7 @@
         <v>41820214.13843992</v>
       </c>
       <c r="H594" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
@@ -22306,7 +22704,7 @@
         <v>41703243.26733992</v>
       </c>
       <c r="H595" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
@@ -22339,7 +22737,7 @@
         <v>41818250.30103992</v>
       </c>
       <c r="H596" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
@@ -22372,7 +22770,7 @@
         <v>41726057.97643155</v>
       </c>
       <c r="H597" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
@@ -22405,7 +22803,7 @@
         <v>41589184.40883155</v>
       </c>
       <c r="H598" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
@@ -22438,7 +22836,7 @@
         <v>41669293.87828196</v>
       </c>
       <c r="H599" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
@@ -22471,7 +22869,7 @@
         <v>41529531.61738196</v>
       </c>
       <c r="H600" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
@@ -22504,7 +22902,7 @@
         <v>41529531.61738196</v>
       </c>
       <c r="H601" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
@@ -22537,7 +22935,7 @@
         <v>41745718.84488196</v>
       </c>
       <c r="H602" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
@@ -22570,7 +22968,7 @@
         <v>41799817.49158196</v>
       </c>
       <c r="H603" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
@@ -22603,7 +23001,7 @@
         <v>41799817.49158196</v>
       </c>
       <c r="H604" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
@@ -22636,7 +23034,7 @@
         <v>41767808.05738197</v>
       </c>
       <c r="H605" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
@@ -22669,7 +23067,7 @@
         <v>41767808.05738197</v>
       </c>
       <c r="H606" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
@@ -22702,7 +23100,7 @@
         <v>41899138.04628196</v>
       </c>
       <c r="H607" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
@@ -22735,7 +23133,7 @@
         <v>42000532.02038196</v>
       </c>
       <c r="H608" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
@@ -22768,7 +23166,7 @@
         <v>42088433.20838197</v>
       </c>
       <c r="H609" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
@@ -22801,7 +23199,7 @@
         <v>42211434.97248197</v>
       </c>
       <c r="H610" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
@@ -22834,7 +23232,7 @@
         <v>42361212.65502723</v>
       </c>
       <c r="H611" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
@@ -22867,7 +23265,7 @@
         <v>42443816.67452724</v>
       </c>
       <c r="H612" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
@@ -22900,7 +23298,7 @@
         <v>42338550.67592724</v>
       </c>
       <c r="H613" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
@@ -22933,7 +23331,7 @@
         <v>42363058.67312723</v>
       </c>
       <c r="H614" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
@@ -22966,7 +23364,7 @@
         <v>42362058.67312723</v>
       </c>
       <c r="H615" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
@@ -22999,7 +23397,7 @@
         <v>42362058.67312723</v>
       </c>
       <c r="H616" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
@@ -23032,7 +23430,7 @@
         <v>42362058.67312723</v>
       </c>
       <c r="H617" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
@@ -23065,7 +23463,7 @@
         <v>42299929.15852723</v>
       </c>
       <c r="H618" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
@@ -23098,7 +23496,7 @@
         <v>42299929.15852723</v>
       </c>
       <c r="H619" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
@@ -23131,7 +23529,7 @@
         <v>42315128.58980696</v>
       </c>
       <c r="H620" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
@@ -23164,7 +23562,7 @@
         <v>42478931.23860696</v>
       </c>
       <c r="H621" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
@@ -23197,7 +23595,7 @@
         <v>42156175.17120696</v>
       </c>
       <c r="H622" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
@@ -23230,7 +23628,7 @@
         <v>42243469.96240696</v>
       </c>
       <c r="H623" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
@@ -23263,7 +23661,7 @@
         <v>42323296.76270696</v>
       </c>
       <c r="H624" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
@@ -23296,7 +23694,7 @@
         <v>42478375.80670696</v>
       </c>
       <c r="H625" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
@@ -23329,7 +23727,7 @@
         <v>42424916.96260696</v>
       </c>
       <c r="H626" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
@@ -23362,7 +23760,7 @@
         <v>42424916.96260696</v>
       </c>
       <c r="H627" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
@@ -23395,7 +23793,7 @@
         <v>42424916.96260696</v>
       </c>
       <c r="H628" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
@@ -23428,7 +23826,7 @@
         <v>42262284.03310696</v>
       </c>
       <c r="H629" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
@@ -23461,7 +23859,7 @@
         <v>41998247.92065129</v>
       </c>
       <c r="H630" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
@@ -23494,7 +23892,7 @@
         <v>42027278.71475129</v>
       </c>
       <c r="H631" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
@@ -23527,7 +23925,7 @@
         <v>42085105.92695129</v>
       </c>
       <c r="H632" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
@@ -23560,7 +23958,7 @@
         <v>42076141.25697604</v>
       </c>
       <c r="H633" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
@@ -23593,7 +23991,7 @@
         <v>42070355.75897603</v>
       </c>
       <c r="H634" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
@@ -23626,7 +24024,7 @@
         <v>42070355.75897603</v>
       </c>
       <c r="H635" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
@@ -23659,7 +24057,7 @@
         <v>42093147.55617604</v>
       </c>
       <c r="H636" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
@@ -23692,7 +24090,7 @@
         <v>42110745.52497604</v>
       </c>
       <c r="H637" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
@@ -23725,7 +24123,7 @@
         <v>42110745.52497604</v>
       </c>
       <c r="H638" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
@@ -23758,7 +24156,7 @@
         <v>42061542.32473864</v>
       </c>
       <c r="H639" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
@@ -23791,7 +24189,7 @@
         <v>42041689.46183864</v>
       </c>
       <c r="H640" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
@@ -23824,7 +24222,7 @@
         <v>42041689.46183864</v>
       </c>
       <c r="H641" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
@@ -23857,7 +24255,7 @@
         <v>42019703.59793864</v>
       </c>
       <c r="H642" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
@@ -23890,7 +24288,7 @@
         <v>42014752.98513864</v>
       </c>
       <c r="H643" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
@@ -23923,7 +24321,7 @@
         <v>41833661.18803864</v>
       </c>
       <c r="H644" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
@@ -23956,7 +24354,7 @@
         <v>41806169.82975966</v>
       </c>
       <c r="H645" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
@@ -23989,7 +24387,7 @@
         <v>41835545.45468524</v>
       </c>
       <c r="H646" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
@@ -24022,7 +24420,7 @@
         <v>41653245.58068524</v>
       </c>
       <c r="H647" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
@@ -24055,7 +24453,7 @@
         <v>41801690.58454426</v>
       </c>
       <c r="H648" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
@@ -24088,7 +24486,7 @@
         <v>41801690.58454426</v>
       </c>
       <c r="H649" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
@@ -24121,7 +24519,7 @@
         <v>41797827.99654426</v>
       </c>
       <c r="H650" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
@@ -24154,7 +24552,7 @@
         <v>41797827.99654426</v>
       </c>
       <c r="H651" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
@@ -24187,7 +24585,7 @@
         <v>41797827.99654426</v>
       </c>
       <c r="H652" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
@@ -24220,7 +24618,7 @@
         <v>41833655.77784427</v>
       </c>
       <c r="H653" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
@@ -24253,7 +24651,7 @@
         <v>41776588.41784427</v>
       </c>
       <c r="H654" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
@@ -24286,7 +24684,7 @@
         <v>41844206.82124426</v>
       </c>
       <c r="H655" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
@@ -24319,7 +24717,7 @@
         <v>41811093.45284426</v>
       </c>
       <c r="H656" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
@@ -24352,7 +24750,7 @@
         <v>41811093.45284426</v>
       </c>
       <c r="H657" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
@@ -24385,7 +24783,7 @@
         <v>41812663.42184426</v>
       </c>
       <c r="H658" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
@@ -24418,7 +24816,7 @@
         <v>41809667.06124426</v>
       </c>
       <c r="H659" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
@@ -24451,7 +24849,7 @@
         <v>41700252.73154426</v>
       </c>
       <c r="H660" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
@@ -24484,7 +24882,7 @@
         <v>44107969.52254426</v>
       </c>
       <c r="H661" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
@@ -24517,7 +24915,7 @@
         <v>44102292.20514426</v>
       </c>
       <c r="H662" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
@@ -24550,7 +24948,7 @@
         <v>44054095.02044426</v>
       </c>
       <c r="H663" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
@@ -24583,7 +24981,7 @@
         <v>44098450.66644426</v>
       </c>
       <c r="H664" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
@@ -24616,7 +25014,7 @@
         <v>46706330.74609431</v>
       </c>
       <c r="H665" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
@@ -24649,7 +25047,7 @@
         <v>46680346.93859431</v>
       </c>
       <c r="H666" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
@@ -24682,7 +25080,7 @@
         <v>46732708.44067282</v>
       </c>
       <c r="H667" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
@@ -24715,7 +25113,7 @@
         <v>43924454.32147282</v>
       </c>
       <c r="H668" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
@@ -24781,7 +25179,7 @@
         <v>43894249.41857282</v>
       </c>
       <c r="H670" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
@@ -24880,7 +25278,7 @@
         <v>43944179.70007053</v>
       </c>
       <c r="H673" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
@@ -24913,7 +25311,7 @@
         <v>43890760.42788938</v>
       </c>
       <c r="H674" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
@@ -24946,7 +25344,7 @@
         <v>43890760.42788938</v>
       </c>
       <c r="H675" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
@@ -24979,7 +25377,7 @@
         <v>43890760.42788938</v>
       </c>
       <c r="H676" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
@@ -25012,7 +25410,7 @@
         <v>43774422.70718937</v>
       </c>
       <c r="H677" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
@@ -25045,7 +25443,7 @@
         <v>43774422.70718937</v>
       </c>
       <c r="H678" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
@@ -25078,7 +25476,7 @@
         <v>43777763.50221898</v>
       </c>
       <c r="H679" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
@@ -25111,7 +25509,7 @@
         <v>41758963.74221898</v>
       </c>
       <c r="H680" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
@@ -25144,7 +25542,7 @@
         <v>41582672.18181898</v>
       </c>
       <c r="H681" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
@@ -25177,7 +25575,7 @@
         <v>41498818.37881897</v>
       </c>
       <c r="H682" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
@@ -25210,7 +25608,7 @@
         <v>41498818.37881897</v>
       </c>
       <c r="H683" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
@@ -25243,7 +25641,7 @@
         <v>41359414.28371897</v>
       </c>
       <c r="H684" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
@@ -25276,7 +25674,7 @@
         <v>41359414.28371897</v>
       </c>
       <c r="H685" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
@@ -25309,7 +25707,7 @@
         <v>41359414.28371897</v>
       </c>
       <c r="H686" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
@@ -25342,7 +25740,7 @@
         <v>41205238.50211897</v>
       </c>
       <c r="H687" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
@@ -25375,7 +25773,7 @@
         <v>41059399.11131898</v>
       </c>
       <c r="H688" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
@@ -25408,7 +25806,7 @@
         <v>41138731.19801898</v>
       </c>
       <c r="H689" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
@@ -25441,7 +25839,7 @@
         <v>37305453.45111898</v>
       </c>
       <c r="H690" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
@@ -25474,7 +25872,7 @@
         <v>39806739.61271898</v>
       </c>
       <c r="H691" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
@@ -25507,7 +25905,7 @@
         <v>39806739.61271898</v>
       </c>
       <c r="H692" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
@@ -25540,7 +25938,7 @@
         <v>40443204.54371898</v>
       </c>
       <c r="H693" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
@@ -25573,7 +25971,7 @@
         <v>40443204.54371898</v>
       </c>
       <c r="H694" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
@@ -25606,7 +26004,7 @@
         <v>40377772.94911898</v>
       </c>
       <c r="H695" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
@@ -25639,7 +26037,7 @@
         <v>40377772.94911898</v>
       </c>
       <c r="H696" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
@@ -25672,7 +26070,7 @@
         <v>40318358.25321898</v>
       </c>
       <c r="H697" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
@@ -25705,7 +26103,7 @@
         <v>40318358.25321898</v>
       </c>
       <c r="H698" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
@@ -25738,7 +26136,7 @@
         <v>40243537.21821898</v>
       </c>
       <c r="H699" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
@@ -25771,7 +26169,7 @@
         <v>40190390.96151898</v>
       </c>
       <c r="H700" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
@@ -25804,7 +26202,7 @@
         <v>39501959.96081898</v>
       </c>
       <c r="H701" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
@@ -25837,7 +26235,7 @@
         <v>39523391.17651898</v>
       </c>
       <c r="H702" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
@@ -25903,7 +26301,7 @@
         <v>39581571.74351899</v>
       </c>
       <c r="H704" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
@@ -25936,7 +26334,7 @@
         <v>44392808.69651899</v>
       </c>
       <c r="H705" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
@@ -25969,7 +26367,7 @@
         <v>44349813.10561899</v>
       </c>
       <c r="H706" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
@@ -26002,7 +26400,7 @@
         <v>44349813.10561899</v>
       </c>
       <c r="H707" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
@@ -26398,7 +26796,7 @@
         <v>42662327.13015909</v>
       </c>
       <c r="H719" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
@@ -26431,7 +26829,7 @@
         <v>43029862.4268591</v>
       </c>
       <c r="H720" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
@@ -26464,7 +26862,7 @@
         <v>43029862.4268591</v>
       </c>
       <c r="H721" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
@@ -26497,7 +26895,7 @@
         <v>43065369.22505909</v>
       </c>
       <c r="H722" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
@@ -26530,7 +26928,7 @@
         <v>43065369.22505909</v>
       </c>
       <c r="H723" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
@@ -26563,7 +26961,7 @@
         <v>43088695.20267284</v>
       </c>
       <c r="H724" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
@@ -26596,7 +26994,7 @@
         <v>43015279.99787284</v>
       </c>
       <c r="H725" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
@@ -26629,7 +27027,7 @@
         <v>42968060.20447284</v>
       </c>
       <c r="H726" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
@@ -26662,7 +27060,7 @@
         <v>42968060.20447284</v>
       </c>
       <c r="H727" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
@@ -26695,7 +27093,7 @@
         <v>42968060.20447284</v>
       </c>
       <c r="H728" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
@@ -26728,7 +27126,7 @@
         <v>42853366.95467284</v>
       </c>
       <c r="H729" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
@@ -26761,7 +27159,7 @@
         <v>42853366.95467284</v>
       </c>
       <c r="H730" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
@@ -26794,7 +27192,7 @@
         <v>42791031.56217285</v>
       </c>
       <c r="H731" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
@@ -26827,7 +27225,7 @@
         <v>42791031.56217285</v>
       </c>
       <c r="H732" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
@@ -26860,7 +27258,7 @@
         <v>42705732.59837285</v>
       </c>
       <c r="H733" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
@@ -26893,7 +27291,7 @@
         <v>42955110.76887285</v>
       </c>
       <c r="H734" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
@@ -26926,7 +27324,7 @@
         <v>43101612.77127285</v>
       </c>
       <c r="H735" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
@@ -26959,7 +27357,7 @@
         <v>43101542.77127285</v>
       </c>
       <c r="H736" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
@@ -27388,7 +27786,7 @@
         <v>41863066.50788979</v>
       </c>
       <c r="H749" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
@@ -27487,7 +27885,7 @@
         <v>41843339.9706898</v>
       </c>
       <c r="H752" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
@@ -27498,6 +27896,6 @@
       <c r="M752" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-05 BackTest XLM.xlsx
+++ b/BackTest/2019-11-05 BackTest XLM.xlsx
@@ -923,9 +923,11 @@
         <v>2009252.350674841</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>79.59999999999999</v>
+      </c>
       <c r="J14" t="n">
         <v>79.90000000000001</v>
       </c>
@@ -1044,9 +1046,11 @@
         <v>5859328.98737484</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="J17" t="n">
         <v>79.90000000000001</v>
       </c>
@@ -1083,9 +1087,11 @@
         <v>5859328.98737484</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="J18" t="n">
         <v>79.90000000000001</v>
       </c>
@@ -1163,11 +1169,9 @@
         <v>5859328.98737484</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>79.90000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="n">
         <v>79.90000000000001</v>
       </c>
@@ -1516,11 +1520,9 @@
         <v>7265190.89267484</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>80</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="n">
         <v>79.90000000000001</v>
       </c>
@@ -1557,9 +1559,11 @@
         <v>7263923.76057484</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>80.3</v>
+      </c>
       <c r="J30" t="n">
         <v>79.90000000000001</v>
       </c>
@@ -1596,11 +1600,9 @@
         <v>7256257.73127484</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>80.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="n">
         <v>79.90000000000001</v>
       </c>
@@ -1637,11 +1639,9 @@
         <v>7256257.73127484</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>80</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="n">
         <v>79.90000000000001</v>
       </c>
@@ -1678,11 +1678,9 @@
         <v>9706257.731274839</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>80</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="n">
         <v>79.90000000000001</v>
       </c>
@@ -1758,11 +1756,9 @@
         <v>9705679.286374839</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>79.90000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="n">
         <v>79.90000000000001</v>
       </c>
@@ -1799,11 +1795,9 @@
         <v>10757317.28627484</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>79.90000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="n">
         <v>79.90000000000001</v>
       </c>
@@ -1840,11 +1834,9 @@
         <v>10757317.28627484</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>80</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="n">
         <v>79.90000000000001</v>
       </c>
@@ -1920,11 +1912,9 @@
         <v>13557317.28627484</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>80.09999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="n">
         <v>79.90000000000001</v>
       </c>
@@ -2078,11 +2068,9 @@
         <v>13554354.69267484</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>80</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="n">
         <v>79.90000000000001</v>
       </c>
@@ -2353,11 +2341,9 @@
         <v>13622878.61637484</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>80</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="n">
         <v>79.90000000000001</v>
       </c>
@@ -2394,11 +2380,9 @@
         <v>13622878.61637484</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>80.09999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="n">
         <v>79.90000000000001</v>
       </c>
@@ -2513,11 +2497,9 @@
         <v>13622748.51687484</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>80</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="n">
         <v>79.90000000000001</v>
       </c>
@@ -2554,11 +2536,9 @@
         <v>13622748.51687484</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>80</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="n">
         <v>79.90000000000001</v>
       </c>
@@ -2595,11 +2575,9 @@
         <v>13624500.07347484</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
-      </c>
-      <c r="I56" t="n">
-        <v>80</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="n">
         <v>79.90000000000001</v>
       </c>
@@ -2636,11 +2614,9 @@
         <v>13611973.71347484</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>80.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="n">
         <v>79.90000000000001</v>
       </c>
@@ -2718,11 +2694,9 @@
         <v>13601973.71347484</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>79.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="n">
         <v>79.90000000000001</v>
       </c>
@@ -2759,11 +2733,9 @@
         <v>19203373.71347484</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>79.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="n">
         <v>79.90000000000001</v>
       </c>
@@ -17581,7 +17553,7 @@
         <v>34763371.50611196</v>
       </c>
       <c r="H440" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="n">
@@ -17589,15 +17561,13 @@
       </c>
       <c r="K440" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L440" t="n">
-        <v>1.152697121401752</v>
-      </c>
-      <c r="M440" t="n">
-        <v>1.003764115432873</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M440" t="inlineStr"/>
     </row>
     <row r="441">
       <c r="A441" s="1" t="n">
@@ -17622,11 +17592,17 @@
         <v>34641986.71291196</v>
       </c>
       <c r="H441" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="J441" t="n">
+        <v>79.90000000000001</v>
+      </c>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -17655,11 +17631,17 @@
         <v>34980998.58131196</v>
       </c>
       <c r="H442" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="J442" t="n">
+        <v>79.90000000000001</v>
+      </c>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -17688,11 +17670,17 @@
         <v>36225737.05011196</v>
       </c>
       <c r="H443" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="J443" t="n">
+        <v>79.90000000000001</v>
+      </c>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -17721,11 +17709,17 @@
         <v>37063726.03241196</v>
       </c>
       <c r="H444" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="J444" t="n">
+        <v>79.90000000000001</v>
+      </c>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -17754,11 +17748,17 @@
         <v>38008812.48191571</v>
       </c>
       <c r="H445" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+      <c r="J445" t="n">
+        <v>79.90000000000001</v>
+      </c>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -17787,11 +17787,17 @@
         <v>39118870.00913366</v>
       </c>
       <c r="H446" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+      <c r="J446" t="n">
+        <v>79.90000000000001</v>
+      </c>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -17820,11 +17826,17 @@
         <v>39871858.47823366</v>
       </c>
       <c r="H447" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+      <c r="J447" t="n">
+        <v>79.90000000000001</v>
+      </c>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -17853,11 +17865,17 @@
         <v>41257734.45353419</v>
       </c>
       <c r="H448" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+      <c r="J448" t="n">
+        <v>79.90000000000001</v>
+      </c>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -17886,11 +17904,17 @@
         <v>40380031.06268939</v>
       </c>
       <c r="H449" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+      <c r="J449" t="n">
+        <v>79.90000000000001</v>
+      </c>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -17919,11 +17943,17 @@
         <v>41017771.00807668</v>
       </c>
       <c r="H450" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+      <c r="J450" t="n">
+        <v>79.90000000000001</v>
+      </c>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -17955,8 +17985,14 @@
         <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+      <c r="J451" t="n">
+        <v>79.90000000000001</v>
+      </c>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -17988,8 +18024,14 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+      <c r="J452" t="n">
+        <v>79.90000000000001</v>
+      </c>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -18021,8 +18063,14 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+      <c r="J453" t="n">
+        <v>79.90000000000001</v>
+      </c>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -18054,8 +18102,14 @@
         <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+      <c r="J454" t="n">
+        <v>79.90000000000001</v>
+      </c>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -18087,8 +18141,14 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+      <c r="J455" t="n">
+        <v>79.90000000000001</v>
+      </c>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -18120,8 +18180,14 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="J456" t="n">
+        <v>79.90000000000001</v>
+      </c>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -18150,15 +18216,23 @@
         <v>40587021.5064964</v>
       </c>
       <c r="H457" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="J457" t="n">
+        <v>79.90000000000001</v>
+      </c>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L457" t="n">
-        <v>1</v>
-      </c>
-      <c r="M457" t="inlineStr"/>
+        <v>1.206514392991239</v>
+      </c>
+      <c r="M457" t="n">
+        <v>1.003764115432873</v>
+      </c>
     </row>
     <row r="458">
       <c r="A458" s="1" t="n">
@@ -18183,7 +18257,7 @@
         <v>40971379.1500964</v>
       </c>
       <c r="H458" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -18249,7 +18323,7 @@
         <v>41920382.5902281</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -18282,7 +18356,7 @@
         <v>42535253.43902811</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -18315,7 +18389,7 @@
         <v>41962241.88324428</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -18348,7 +18422,7 @@
         <v>42175579.17571039</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -18381,7 +18455,7 @@
         <v>42175579.17571039</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -18414,7 +18488,7 @@
         <v>41919462.46329443</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -18447,7 +18521,7 @@
         <v>41725450.99229443</v>
       </c>
       <c r="H466" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -18480,7 +18554,7 @@
         <v>41550802.54735037</v>
       </c>
       <c r="H467" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -18513,7 +18587,7 @@
         <v>41865660.20115037</v>
       </c>
       <c r="H468" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -18546,7 +18620,7 @@
         <v>42095791.93415038</v>
       </c>
       <c r="H469" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -18579,7 +18653,7 @@
         <v>41911428.27145038</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -18612,7 +18686,7 @@
         <v>42134156.44265038</v>
       </c>
       <c r="H471" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -18645,7 +18719,7 @@
         <v>41923866.02525038</v>
       </c>
       <c r="H472" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -18678,7 +18752,7 @@
         <v>41639631.86675037</v>
       </c>
       <c r="H473" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -18711,7 +18785,7 @@
         <v>41862663.75995038</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -18744,7 +18818,7 @@
         <v>41518399.93505038</v>
       </c>
       <c r="H475" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -18777,7 +18851,7 @@
         <v>41518399.93505038</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -18810,7 +18884,7 @@
         <v>41003303.16125038</v>
       </c>
       <c r="H477" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -18843,7 +18917,7 @@
         <v>40818847.31875037</v>
       </c>
       <c r="H478" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -18876,7 +18950,7 @@
         <v>40611121.32650232</v>
       </c>
       <c r="H479" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -18909,7 +18983,7 @@
         <v>40225884.16300231</v>
       </c>
       <c r="H480" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -18942,7 +19016,7 @@
         <v>40272711.25130997</v>
       </c>
       <c r="H481" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -18975,7 +19049,7 @@
         <v>39954594.37636805</v>
       </c>
       <c r="H482" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -19008,7 +19082,7 @@
         <v>39854866.65493648</v>
       </c>
       <c r="H483" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -19041,7 +19115,7 @@
         <v>40401380.15983649</v>
       </c>
       <c r="H484" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -19074,7 +19148,7 @@
         <v>40515602.12141409</v>
       </c>
       <c r="H485" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -19107,7 +19181,7 @@
         <v>40684337.58353649</v>
       </c>
       <c r="H486" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -19140,7 +19214,7 @@
         <v>41191269.03743649</v>
       </c>
       <c r="H487" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -19173,7 +19247,7 @@
         <v>41658359.11441565</v>
       </c>
       <c r="H488" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -19206,7 +19280,7 @@
         <v>42890801.77071565</v>
       </c>
       <c r="H489" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -19239,7 +19313,7 @@
         <v>44412464.04257372</v>
       </c>
       <c r="H490" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -19272,7 +19346,7 @@
         <v>43761480.80415606</v>
       </c>
       <c r="H491" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -19305,7 +19379,7 @@
         <v>44346617.92444637</v>
       </c>
       <c r="H492" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -19338,7 +19412,7 @@
         <v>43866658.44354638</v>
       </c>
       <c r="H493" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -19371,7 +19445,7 @@
         <v>43457396.10714637</v>
       </c>
       <c r="H494" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -19404,7 +19478,7 @@
         <v>43813445.89584637</v>
       </c>
       <c r="H495" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -19437,7 +19511,7 @@
         <v>43615973.29257812</v>
       </c>
       <c r="H496" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -19470,7 +19544,7 @@
         <v>43482106.18997812</v>
       </c>
       <c r="H497" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -19503,7 +19577,7 @@
         <v>43673379.61047813</v>
       </c>
       <c r="H498" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -19536,7 +19610,7 @@
         <v>43442349.47201025</v>
       </c>
       <c r="H499" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -19569,7 +19643,7 @@
         <v>43283812.42341024</v>
       </c>
       <c r="H500" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -19602,7 +19676,7 @@
         <v>43212974.08521024</v>
       </c>
       <c r="H501" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -19635,7 +19709,7 @@
         <v>43140945.79591024</v>
       </c>
       <c r="H502" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -19767,7 +19841,7 @@
         <v>44747104.97148109</v>
       </c>
       <c r="H506" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -19800,7 +19874,7 @@
         <v>44988013.76792305</v>
       </c>
       <c r="H507" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -19833,7 +19907,7 @@
         <v>44631385.72251782</v>
       </c>
       <c r="H508" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -19866,7 +19940,7 @@
         <v>44977580.36780833</v>
       </c>
       <c r="H509" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -19899,7 +19973,7 @@
         <v>45091114.78320833</v>
       </c>
       <c r="H510" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -19932,7 +20006,7 @@
         <v>44871144.58970834</v>
       </c>
       <c r="H511" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -19965,7 +20039,7 @@
         <v>44944504.35342021</v>
       </c>
       <c r="H512" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -19998,7 +20072,7 @@
         <v>44944504.35342021</v>
       </c>
       <c r="H513" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -20031,7 +20105,7 @@
         <v>45131176.9218156</v>
       </c>
       <c r="H514" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -20064,7 +20138,7 @@
         <v>45302542.07661559</v>
       </c>
       <c r="H515" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -20097,7 +20171,7 @@
         <v>46329789.14611559</v>
       </c>
       <c r="H516" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -20130,7 +20204,7 @@
         <v>46329789.14611559</v>
       </c>
       <c r="H517" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -20163,7 +20237,7 @@
         <v>46272396.24508426</v>
       </c>
       <c r="H518" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -20196,7 +20270,7 @@
         <v>46054191.20679409</v>
       </c>
       <c r="H519" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -20229,7 +20303,7 @@
         <v>45932655.92539409</v>
       </c>
       <c r="H520" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -20262,7 +20336,7 @@
         <v>45957339.63278365</v>
       </c>
       <c r="H521" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -20295,7 +20369,7 @@
         <v>45876735.88088365</v>
       </c>
       <c r="H522" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -20328,7 +20402,7 @@
         <v>45829293.42118365</v>
       </c>
       <c r="H523" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -20361,7 +20435,7 @@
         <v>46066014.91768365</v>
       </c>
       <c r="H524" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -20394,7 +20468,7 @@
         <v>46339902.73018463</v>
       </c>
       <c r="H525" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -20427,7 +20501,7 @@
         <v>46339902.73018463</v>
       </c>
       <c r="H526" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -20460,7 +20534,7 @@
         <v>46339902.73018463</v>
       </c>
       <c r="H527" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -20493,7 +20567,7 @@
         <v>46339902.73018463</v>
       </c>
       <c r="H528" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -20526,7 +20600,7 @@
         <v>46586413.76482776</v>
       </c>
       <c r="H529" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -20559,7 +20633,7 @@
         <v>46197972.28662775</v>
       </c>
       <c r="H530" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -20592,7 +20666,7 @@
         <v>46197972.28662775</v>
       </c>
       <c r="H531" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -20625,7 +20699,7 @@
         <v>46159630.50032775</v>
       </c>
       <c r="H532" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -20658,7 +20732,7 @@
         <v>46290958.97212775</v>
       </c>
       <c r="H533" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -20691,7 +20765,7 @@
         <v>45965024.84032775</v>
       </c>
       <c r="H534" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -20724,7 +20798,7 @@
         <v>46095844.04672775</v>
       </c>
       <c r="H535" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -20757,7 +20831,7 @@
         <v>46007916.98622774</v>
       </c>
       <c r="H536" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -20790,7 +20864,7 @@
         <v>46007916.98622774</v>
       </c>
       <c r="H537" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -20823,7 +20897,7 @@
         <v>46104131.80072774</v>
       </c>
       <c r="H538" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -20856,7 +20930,7 @@
         <v>45827045.28442774</v>
       </c>
       <c r="H539" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -20889,7 +20963,7 @@
         <v>45410599.46972774</v>
       </c>
       <c r="H540" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -20922,7 +20996,7 @@
         <v>45378709.86275104</v>
       </c>
       <c r="H541" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -20955,7 +21029,7 @@
         <v>45559877.93275104</v>
       </c>
       <c r="H542" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -20988,7 +21062,7 @@
         <v>45650288.79995104</v>
       </c>
       <c r="H543" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -21021,7 +21095,7 @@
         <v>45518467.02165104</v>
       </c>
       <c r="H544" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -21054,7 +21128,7 @@
         <v>45383183.88445104</v>
       </c>
       <c r="H545" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -21087,7 +21161,7 @@
         <v>45067167.87375104</v>
       </c>
       <c r="H546" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -21120,7 +21194,7 @@
         <v>45299597.13375103</v>
       </c>
       <c r="H547" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -21153,7 +21227,7 @@
         <v>45299597.13375103</v>
       </c>
       <c r="H548" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -21186,7 +21260,7 @@
         <v>45103373.18925104</v>
       </c>
       <c r="H549" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -21252,7 +21326,7 @@
         <v>45624230.82925104</v>
       </c>
       <c r="H551" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -21285,7 +21359,7 @@
         <v>45622767.11115104</v>
       </c>
       <c r="H552" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -21318,7 +21392,7 @@
         <v>45622767.11115104</v>
       </c>
       <c r="H553" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -21351,7 +21425,7 @@
         <v>45553029.28835104</v>
       </c>
       <c r="H554" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -21450,7 +21524,7 @@
         <v>45502071.98940764</v>
       </c>
       <c r="H557" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
